--- a/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
   <si>
     <t>Datetime</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>SOPHY_20220508_180041_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -648,25 +651,25 @@
         <v>0.9801724426132262</v>
       </c>
       <c r="J2">
-        <v>0.002473574648359304</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2911351.982672561</v>
+        <v>291135.1982672561</v>
       </c>
       <c r="L2">
-        <v>64.6409471484843</v>
+        <v>54.6409471484843</v>
       </c>
       <c r="M2">
-        <v>2970244.679508271</v>
+        <v>297024.4679508271</v>
       </c>
       <c r="N2">
-        <v>64.72792226618003</v>
-      </c>
-      <c r="O2">
-        <v>1200790395.179059</v>
-      </c>
-      <c r="P2">
-        <v>90.79467205436565</v>
+        <v>54.72792226618004</v>
+      </c>
+      <c r="O2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -698,25 +701,25 @@
         <v>0.8372766025123747</v>
       </c>
       <c r="J3">
-        <v>1.044318000290486E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3419589.292053095</v>
+        <v>341958.9292053095</v>
       </c>
       <c r="L3">
-        <v>65.33973948481284</v>
+        <v>55.33973948481283</v>
       </c>
       <c r="M3">
-        <v>4084181.119825996</v>
+        <v>408418.1119825995</v>
       </c>
       <c r="N3">
-        <v>66.11104993355329</v>
-      </c>
-      <c r="O3">
-        <v>391085964111.5012</v>
-      </c>
-      <c r="P3">
-        <v>115.9227222961025</v>
+        <v>56.1110499335533</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -748,25 +751,25 @@
         <v>0.9983463313701966</v>
       </c>
       <c r="J4">
-        <v>9.335558234613253E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16033654.48744828</v>
+        <v>1603365.448744828</v>
       </c>
       <c r="L4">
-        <v>72.05032520660184</v>
+        <v>62.05032520660184</v>
       </c>
       <c r="M4">
-        <v>16060212.75747328</v>
+        <v>1606021.275747328</v>
       </c>
       <c r="N4">
-        <v>72.05751294291642</v>
-      </c>
-      <c r="O4">
-        <v>1720326985688.672</v>
-      </c>
-      <c r="P4">
-        <v>122.3561100189797</v>
+        <v>62.05751294291641</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -798,25 +801,25 @@
         <v>0.9992570592935902</v>
       </c>
       <c r="J5">
-        <v>1.08696921721068E-08</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>115242319.0528373</v>
+        <v>11524231.90528373</v>
       </c>
       <c r="L5">
-        <v>80.61611989123448</v>
+        <v>70.61611989123446</v>
       </c>
       <c r="M5">
-        <v>115328000.9193091</v>
+        <v>11532800.09193091</v>
       </c>
       <c r="N5">
-        <v>80.61934764088804</v>
-      </c>
-      <c r="O5">
-        <v>1.061005216093032E+16</v>
-      </c>
-      <c r="P5">
-        <v>160.257175189766</v>
+        <v>70.61934764088805</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -848,25 +851,25 @@
         <v>0.9993171930059894</v>
       </c>
       <c r="J6">
-        <v>0.002264849555593874</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>289512947.2396281</v>
+        <v>28951294.72396281</v>
       </c>
       <c r="L6">
-        <v>84.61667990477942</v>
+        <v>74.61667990477942</v>
       </c>
       <c r="M6">
-        <v>289710763.7753741</v>
+        <v>28971076.37753741</v>
       </c>
       <c r="N6">
-        <v>84.61964631073312</v>
-      </c>
-      <c r="O6">
-        <v>127916118339.8815</v>
-      </c>
-      <c r="P6">
-        <v>111.0692527211757</v>
+        <v>74.61964631073312</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -898,25 +901,25 @@
         <v>0.9965223974901755</v>
       </c>
       <c r="J7">
-        <v>0.001919803778253939</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>306205146.7907426</v>
+        <v>30620514.67907426</v>
       </c>
       <c r="L7">
-        <v>84.86012486179465</v>
+        <v>74.86012486179465</v>
       </c>
       <c r="M7">
-        <v>307273722.6598677</v>
+        <v>30727372.26598677</v>
       </c>
       <c r="N7">
-        <v>84.87525421981816</v>
-      </c>
-      <c r="O7">
-        <v>160054754626.7114</v>
-      </c>
-      <c r="P7">
-        <v>112.0426857993266</v>
+        <v>74.87525421981816</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -948,25 +951,25 @@
         <v>0.9682089233775711</v>
       </c>
       <c r="J8">
-        <v>1.281811230775055E-05</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>502998092.0064828</v>
+        <v>50299809.20064828</v>
       </c>
       <c r="L8">
-        <v>87.01566337674959</v>
+        <v>77.01566337674959</v>
       </c>
       <c r="M8">
-        <v>519514001.4324462</v>
+        <v>51951400.14324463</v>
       </c>
       <c r="N8">
-        <v>87.15597256730364</v>
-      </c>
-      <c r="O8">
-        <v>40529680888996.33</v>
-      </c>
-      <c r="P8">
-        <v>136.0777318433154</v>
+        <v>77.15597256730364</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -998,25 +1001,25 @@
         <v>0.9747877845103711</v>
       </c>
       <c r="J9">
-        <v>9.772248531103062E-06</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>578964988.7419739</v>
+        <v>57896498.87419739</v>
       </c>
       <c r="L9">
-        <v>87.62652301800145</v>
+        <v>77.62652301800145</v>
       </c>
       <c r="M9">
-        <v>593939519.9056417</v>
+        <v>59393951.99056417</v>
       </c>
       <c r="N9">
-        <v>87.7374222358637</v>
-      </c>
-      <c r="O9">
-        <v>60778184060224.62</v>
-      </c>
-      <c r="P9">
-        <v>137.8374772002155</v>
+        <v>77.7374222358637</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1048,25 +1051,25 @@
         <v>0.9775874599781741</v>
       </c>
       <c r="J10">
-        <v>1.118139846841349E-06</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>39929822.36265156</v>
+        <v>3992982.236265157</v>
       </c>
       <c r="L10">
-        <v>76.01297378135941</v>
+        <v>66.01297378135941</v>
       </c>
       <c r="M10">
-        <v>40845268.57938936</v>
+        <v>4084526.857938936</v>
       </c>
       <c r="N10">
-        <v>76.11141756122498</v>
-      </c>
-      <c r="O10">
-        <v>36529660126838.17</v>
-      </c>
-      <c r="P10">
-        <v>135.6264563154054</v>
+        <v>66.11141756122498</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1098,25 +1101,25 @@
         <v>0.9997633469492352</v>
       </c>
       <c r="J11">
-        <v>3.958203673310404E-07</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>50982584.71665695</v>
+        <v>5098258.471665695</v>
       </c>
       <c r="L11">
-        <v>77.07421849566475</v>
+        <v>67.07421849566475</v>
       </c>
       <c r="M11">
-        <v>50994652.75680454</v>
+        <v>5099465.275680454</v>
       </c>
       <c r="N11">
-        <v>77.07524638843726</v>
-      </c>
-      <c r="O11">
-        <v>128832816513849.7</v>
-      </c>
-      <c r="P11">
-        <v>141.1002650134348</v>
+        <v>67.07524638843726</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1148,25 +1151,25 @@
         <v>0.9751608820258877</v>
       </c>
       <c r="J12">
-        <v>0.00850329102930897</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>449165451.3357432</v>
+        <v>44916545.13357433</v>
       </c>
       <c r="L12">
-        <v>86.52406344046955</v>
+        <v>76.52406344046955</v>
       </c>
       <c r="M12">
-        <v>460606510.797076</v>
+        <v>46060651.07970761</v>
       </c>
       <c r="N12">
-        <v>86.63330072541061</v>
-      </c>
-      <c r="O12">
-        <v>54168028497.37436</v>
-      </c>
-      <c r="P12">
-        <v>107.3374302926835</v>
+        <v>76.63330072541061</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1198,25 +1201,25 @@
         <v>0.9949519349068995</v>
       </c>
       <c r="J13">
-        <v>0.0007859563481159708</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>667716750.5851215</v>
+        <v>66771675.05851215</v>
       </c>
       <c r="L13">
-        <v>88.24592271239381</v>
+        <v>78.24592271239381</v>
       </c>
       <c r="M13">
-        <v>671104529.9365156</v>
+        <v>67110452.99365157</v>
       </c>
       <c r="N13">
-        <v>88.26790170301604</v>
-      </c>
-      <c r="O13">
-        <v>853869978333.0608</v>
-      </c>
-      <c r="P13">
-        <v>119.3139174423523</v>
+        <v>78.26790170301604</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1248,25 +1251,25 @@
         <v>0.9997738564179071</v>
       </c>
       <c r="J14">
-        <v>2.535687106309643E-09</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>27890925.80907878</v>
+        <v>2789092.580907878</v>
       </c>
       <c r="L14">
-        <v>74.4546293044034</v>
+        <v>64.4546293044034</v>
       </c>
       <c r="M14">
-        <v>27897234.58963937</v>
+        <v>2789723.458963937</v>
       </c>
       <c r="N14">
-        <v>74.45561154456945</v>
-      </c>
-      <c r="O14">
-        <v>1.10018442418316E+16</v>
-      </c>
-      <c r="P14">
-        <v>160.4146549215057</v>
+        <v>64.45561154456945</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1298,25 +1301,25 @@
         <v>0.9999100580597597</v>
       </c>
       <c r="J15">
-        <v>6.507115102307512E-09</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>196299379.0438544</v>
+        <v>19629937.90438544</v>
       </c>
       <c r="L15">
-        <v>82.92918925793313</v>
+        <v>72.92918925793312</v>
       </c>
       <c r="M15">
-        <v>196317036.1789905</v>
+        <v>19631703.61789905</v>
       </c>
       <c r="N15">
-        <v>82.9295798883838</v>
-      </c>
-      <c r="O15">
-        <v>3.016959637142024E+16</v>
-      </c>
-      <c r="P15">
-        <v>164.7956949993841</v>
+        <v>72.9295798883838</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1348,25 +1351,25 @@
         <v>0.9915564935494877</v>
       </c>
       <c r="J16">
-        <v>0.001750996594351429</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>30081751.54083763</v>
+        <v>3008175.154083764</v>
       </c>
       <c r="L16">
-        <v>74.78303119897475</v>
+        <v>64.78303119897475</v>
       </c>
       <c r="M16">
-        <v>30337909.87859259</v>
+        <v>3033790.987859259</v>
       </c>
       <c r="N16">
-        <v>74.81985656890333</v>
-      </c>
-      <c r="O16">
-        <v>17326081602.02036</v>
-      </c>
-      <c r="P16">
-        <v>102.3870035549896</v>
+        <v>64.81985656890333</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1398,25 +1401,25 @@
         <v>0.9913827713127528</v>
       </c>
       <c r="J17">
-        <v>0.002110657018174449</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>292834164.876367</v>
+        <v>29283416.4876367</v>
       </c>
       <c r="L17">
-        <v>84.66621744352534</v>
+        <v>74.66621744352534</v>
       </c>
       <c r="M17">
-        <v>295379517.7301767</v>
+        <v>29537951.77301768</v>
       </c>
       <c r="N17">
-        <v>84.70380377078961</v>
-      </c>
-      <c r="O17">
-        <v>139946715731.9841</v>
-      </c>
-      <c r="P17">
-        <v>111.4596271090355</v>
+        <v>74.70380377078959</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1448,25 +1451,25 @@
         <v>0.9499744750105159</v>
       </c>
       <c r="J18">
-        <v>0.0003384136515885156</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>283446240.7223937</v>
+        <v>28344624.07223937</v>
       </c>
       <c r="L18">
-        <v>84.52470701424548</v>
+        <v>74.52470701424548</v>
       </c>
       <c r="M18">
-        <v>298372480.7124486</v>
+        <v>29837248.07124487</v>
       </c>
       <c r="N18">
-        <v>84.74758765094657</v>
-      </c>
-      <c r="O18">
-        <v>881679800185.0294</v>
-      </c>
-      <c r="P18">
-        <v>119.4531089095824</v>
+        <v>74.74758765094657</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1498,25 +1501,25 @@
         <v>0.9192562752970302</v>
       </c>
       <c r="J19">
-        <v>0.0003825022576678809</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>298892633.1844054</v>
+        <v>29889263.31844054</v>
       </c>
       <c r="L19">
-        <v>84.75515211102214</v>
+        <v>74.75515211102214</v>
       </c>
       <c r="M19">
-        <v>325146143.9170781</v>
+        <v>32514614.39170781</v>
       </c>
       <c r="N19">
-        <v>85.12078607842717</v>
-      </c>
-      <c r="O19">
-        <v>850050260878.1881</v>
-      </c>
-      <c r="P19">
-        <v>119.2944460498103</v>
+        <v>75.12078607842717</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1548,25 +1551,25 @@
         <v>0.9652080230226044</v>
       </c>
       <c r="J20">
-        <v>2.810587937938738E-05</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>537409830.238839</v>
+        <v>53740983.0238839</v>
       </c>
       <c r="L20">
-        <v>87.30305606234546</v>
+        <v>77.30305606234546</v>
       </c>
       <c r="M20">
-        <v>556781354.2990547</v>
+        <v>55678135.42990548</v>
       </c>
       <c r="N20">
-        <v>87.4568468303099</v>
-      </c>
-      <c r="O20">
-        <v>19810138184375.53</v>
-      </c>
-      <c r="P20">
-        <v>132.9688750494301</v>
+        <v>77.4568468303099</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1598,25 +1601,25 @@
         <v>0.998770274677926</v>
       </c>
       <c r="J21">
-        <v>1.583650020125034E-07</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>9986928.342263227</v>
+        <v>998692.8342263228</v>
       </c>
       <c r="L21">
-        <v>69.99431933758245</v>
+        <v>59.99431933758245</v>
       </c>
       <c r="M21">
-        <v>9999224.64200661</v>
+        <v>999922.4642006611</v>
       </c>
       <c r="N21">
-        <v>69.99966325324684</v>
-      </c>
-      <c r="O21">
-        <v>63140368862667.89</v>
-      </c>
-      <c r="P21">
-        <v>138.0030711468881</v>
+        <v>59.99966325324684</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1648,25 +1651,25 @@
         <v>0.9999895464760263</v>
       </c>
       <c r="J22">
-        <v>1.504646299204917E-07</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>118531910.9424638</v>
+        <v>11853191.09424638</v>
       </c>
       <c r="L22">
-        <v>80.73835286046915</v>
+        <v>70.73835286046915</v>
       </c>
       <c r="M22">
-        <v>118533150.0315893</v>
+        <v>11853315.00315893</v>
       </c>
       <c r="N22">
-        <v>80.73839825978423</v>
-      </c>
-      <c r="O22">
-        <v>787780823268727.1</v>
-      </c>
-      <c r="P22">
-        <v>148.9640540469102</v>
+        <v>70.73839825978422</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1698,25 +1701,25 @@
         <v>0.7739074094399371</v>
       </c>
       <c r="J23">
-        <v>0.008671336876625723</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>241326285.10729</v>
+        <v>24132628.510729</v>
       </c>
       <c r="L23">
-        <v>83.82604627567079</v>
+        <v>73.82604627567079</v>
       </c>
       <c r="M23">
-        <v>311828368.8250685</v>
+        <v>31182836.88250685</v>
       </c>
       <c r="N23">
-        <v>84.93915622923824</v>
-      </c>
-      <c r="O23">
-        <v>35960818183.13697</v>
-      </c>
-      <c r="P23">
-        <v>105.5582956427307</v>
+        <v>74.93915622923825</v>
+      </c>
+      <c r="O23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1748,25 +1751,25 @@
         <v>0.8701825241789936</v>
       </c>
       <c r="J24">
-        <v>8.857421997606231E-08</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>145112453.5236083</v>
+        <v>14511245.35236083</v>
       </c>
       <c r="L24">
-        <v>81.61704685108297</v>
+        <v>71.61704685108299</v>
       </c>
       <c r="M24">
-        <v>166760937.4947171</v>
+        <v>16676093.74947171</v>
       </c>
       <c r="N24">
-        <v>82.22094327972837</v>
-      </c>
-      <c r="O24">
-        <v>1882725442457017</v>
-      </c>
-      <c r="P24">
-        <v>152.7478699154096</v>
+        <v>72.22094327972837</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1798,25 +1801,25 @@
         <v>0.8701825241789936</v>
       </c>
       <c r="J25">
-        <v>9.815036507600419E-08</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>159966405.8629501</v>
+        <v>15996640.58629501</v>
       </c>
       <c r="L25">
-        <v>82.04028787154576</v>
+        <v>72.04028787154576</v>
       </c>
       <c r="M25">
-        <v>183830864.6957446</v>
+        <v>18383086.46957446</v>
       </c>
       <c r="N25">
-        <v>82.64418430019114</v>
-      </c>
-      <c r="O25">
-        <v>1872951410352804</v>
-      </c>
-      <c r="P25">
-        <v>152.7252651069645</v>
+        <v>72.64418430019116</v>
+      </c>
+      <c r="O25" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1848,25 +1851,25 @@
         <v>0.9734626125274396</v>
       </c>
       <c r="J26">
-        <v>0.00301700557998527</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>7294343.788309126</v>
+        <v>729434.3788309126</v>
       </c>
       <c r="L26">
-        <v>68.62986228109528</v>
+        <v>58.62986228109528</v>
       </c>
       <c r="M26">
-        <v>7493193.569469023</v>
+        <v>749319.3569469023</v>
       </c>
       <c r="N26">
-        <v>68.74666951744828</v>
-      </c>
-      <c r="O26">
-        <v>2483652539.186091</v>
-      </c>
-      <c r="P26">
-        <v>93.95090838336637</v>
+        <v>58.74666951744828</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1898,25 +1901,25 @@
         <v>0.9734626125274396</v>
       </c>
       <c r="J27">
-        <v>0.006436777156191609</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>158507130.4215261</v>
+        <v>15850713.04215262</v>
       </c>
       <c r="L27">
-        <v>82.00048803670924</v>
+        <v>72.00048803670926</v>
       </c>
       <c r="M27">
-        <v>162828164.5146985</v>
+        <v>16282816.45146985</v>
       </c>
       <c r="N27">
-        <v>82.11729527306225</v>
-      </c>
-      <c r="O27">
-        <v>25296535915.97034</v>
-      </c>
-      <c r="P27">
-        <v>104.0306105336625</v>
+        <v>72.11729527306224</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1948,25 +1951,25 @@
         <v>0.9855421541523047</v>
       </c>
       <c r="J28">
-        <v>0.001250628704096073</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>19619337.54013337</v>
+        <v>1961933.754013337</v>
       </c>
       <c r="L28">
-        <v>72.92684339051996</v>
+        <v>62.92684339051996</v>
       </c>
       <c r="M28">
-        <v>19907152.07611649</v>
+        <v>1990715.207611649</v>
       </c>
       <c r="N28">
-        <v>72.99009134156266</v>
-      </c>
-      <c r="O28">
-        <v>15917715634.47758</v>
-      </c>
-      <c r="P28">
-        <v>102.0188074188624</v>
+        <v>62.99009134156265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1998,25 +2001,25 @@
         <v>0.9755917719794568</v>
       </c>
       <c r="J29">
-        <v>0.001955598733578222</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>375921363.1248179</v>
+        <v>37592136.31248179</v>
       </c>
       <c r="L29">
-        <v>85.7509700680877</v>
+        <v>75.7509700680877</v>
       </c>
       <c r="M29">
-        <v>385326500.2041589</v>
+        <v>38532650.02041589</v>
       </c>
       <c r="N29">
-        <v>85.85828877937666</v>
-      </c>
-      <c r="O29">
-        <v>197037609806.1357</v>
-      </c>
-      <c r="P29">
-        <v>112.9454913058956</v>
+        <v>75.85828877937666</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2048,25 +2051,25 @@
         <v>0.9881813844857236</v>
       </c>
       <c r="J30">
-        <v>1.759979686489737E-08</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>2250548.794154377</v>
+        <v>225054.8794154377</v>
       </c>
       <c r="L30">
-        <v>63.52288433316387</v>
+        <v>53.52288433316387</v>
       </c>
       <c r="M30">
-        <v>2277465.280653534</v>
+        <v>227746.5280653535</v>
       </c>
       <c r="N30">
-        <v>63.57451764992778</v>
-      </c>
-      <c r="O30">
-        <v>129402929939260.7</v>
-      </c>
-      <c r="P30">
-        <v>141.1194410973336</v>
+        <v>53.57451764992778</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2098,25 +2101,25 @@
         <v>0.9969703896697774</v>
       </c>
       <c r="J31">
-        <v>2.560859267082879E-08</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>75990075.44095725</v>
+        <v>7599007.544095725</v>
       </c>
       <c r="L31">
-        <v>78.80756875666614</v>
+        <v>68.80756875666614</v>
       </c>
       <c r="M31">
-        <v>76220995.35586724</v>
+        <v>7622099.535586723</v>
       </c>
       <c r="N31">
-        <v>78.82074615844415</v>
-      </c>
-      <c r="O31">
-        <v>2976383604347456</v>
-      </c>
-      <c r="P31">
-        <v>154.7368890352543</v>
+        <v>68.82074615844415</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2148,25 +2151,25 @@
         <v>0.9903217237596409</v>
       </c>
       <c r="J32">
-        <v>0.0005652435043151322</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>22098660.46674516</v>
+        <v>2209866.046674517</v>
       </c>
       <c r="L32">
-        <v>73.44365949271885</v>
+        <v>63.44365949271885</v>
       </c>
       <c r="M32">
-        <v>22314627.59682801</v>
+        <v>2231462.759682801</v>
       </c>
       <c r="N32">
-        <v>73.48589643406341</v>
-      </c>
-      <c r="O32">
-        <v>39477901871.45123</v>
-      </c>
-      <c r="P32">
-        <v>105.9635406320062</v>
+        <v>63.48589643406341</v>
+      </c>
+      <c r="O32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2198,25 +2201,25 @@
         <v>0.9762386169624914</v>
       </c>
       <c r="J33">
-        <v>0.0004784591351917719</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>277519107.7451887</v>
+        <v>27751910.77451887</v>
       </c>
       <c r="L33">
-        <v>84.43292890531166</v>
+        <v>74.43292890531164</v>
       </c>
       <c r="M33">
-        <v>284273847.5237467</v>
+        <v>28427384.75237468</v>
       </c>
       <c r="N33">
-        <v>84.5373690753231</v>
-      </c>
-      <c r="O33">
-        <v>594144466297.6422</v>
-      </c>
-      <c r="P33">
-        <v>117.7389205657637</v>
+        <v>74.53736907532311</v>
+      </c>
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2248,25 +2251,25 @@
         <v>0.5373001009570524</v>
       </c>
       <c r="J34">
-        <v>0.0007758210007623096</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>45283610.64078991</v>
+        <v>4528361.064078991</v>
       </c>
       <c r="L34">
-        <v>76.55941047571886</v>
+        <v>66.55941047571886</v>
       </c>
       <c r="M34">
-        <v>84279922.07730766</v>
+        <v>8427992.207730766</v>
       </c>
       <c r="N34">
-        <v>79.25724125400575</v>
-      </c>
-      <c r="O34">
-        <v>108633205332.7965</v>
-      </c>
-      <c r="P34">
-        <v>110.3596259402447</v>
+        <v>69.25724125400575</v>
+      </c>
+      <c r="O34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2298,25 +2301,25 @@
         <v>0.9651685395302179</v>
       </c>
       <c r="J35">
-        <v>2.518005988448954E-08</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>8558804.767144565</v>
+        <v>855880.4767144566</v>
       </c>
       <c r="L35">
-        <v>69.32413119901818</v>
+        <v>59.32413119901818</v>
       </c>
       <c r="M35">
-        <v>8867678.976886714</v>
+        <v>886767.8976886714</v>
       </c>
       <c r="N35">
-        <v>69.47809962623526</v>
-      </c>
-      <c r="O35">
-        <v>352170686549837.9</v>
-      </c>
-      <c r="P35">
-        <v>145.4675320398939</v>
+        <v>59.47809962623527</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2348,25 +2351,25 @@
         <v>0.9774070533769117</v>
       </c>
       <c r="J36">
-        <v>1.495849306825334E-08</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>120725871.9949149</v>
+        <v>12072587.19949149</v>
       </c>
       <c r="L36">
-        <v>80.81800350963766</v>
+        <v>70.81800350963766</v>
       </c>
       <c r="M36">
-        <v>123516473.0782437</v>
+        <v>12351647.30782438</v>
       </c>
       <c r="N36">
-        <v>80.91724882210207</v>
-      </c>
-      <c r="O36">
-        <v>8257280497083280</v>
-      </c>
-      <c r="P36">
-        <v>159.1683703768618</v>
+        <v>70.91724882210207</v>
+      </c>
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2398,25 +2401,25 @@
         <v>0.9767229290897765</v>
       </c>
       <c r="J37">
-        <v>0.01927847380303524</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>176045058.4924038</v>
+        <v>17604505.84924038</v>
       </c>
       <c r="L37">
-        <v>82.4562383912162</v>
+        <v>72.45623839121622</v>
       </c>
       <c r="M37">
-        <v>180240530.0922575</v>
+        <v>18024053.00922575</v>
       </c>
       <c r="N37">
-        <v>82.55852455989429</v>
-      </c>
-      <c r="O37">
-        <v>9349315300.2537</v>
-      </c>
-      <c r="P37">
-        <v>99.70779806358081</v>
+        <v>72.55852455989431</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2448,25 +2451,25 @@
         <v>0.9440112514160018</v>
       </c>
       <c r="J38">
-        <v>0.01052933338232311</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>14031112.35803583</v>
+        <v>1403111.235803583</v>
       </c>
       <c r="L38">
-        <v>71.4709210237598</v>
+        <v>61.4709210237598</v>
       </c>
       <c r="M38">
-        <v>14863289.32731403</v>
+        <v>1486328.932731404</v>
       </c>
       <c r="N38">
-        <v>71.72114931808036</v>
-      </c>
-      <c r="O38">
-        <v>1411607818.617166</v>
-      </c>
-      <c r="P38">
-        <v>91.49714055166032</v>
+        <v>61.72114931808036</v>
+      </c>
+      <c r="O38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2498,25 +2501,25 @@
         <v>0.3612158146504303</v>
       </c>
       <c r="J39">
-        <v>1.153556817350658E-05</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>48540129.09258463</v>
+        <v>4854012.909258463</v>
       </c>
       <c r="L39">
-        <v>76.86100927004622</v>
+        <v>66.86100927004622</v>
       </c>
       <c r="M39">
-        <v>134379855.8198781</v>
+        <v>13437985.58198781</v>
       </c>
       <c r="N39">
-        <v>81.28334170786572</v>
-      </c>
-      <c r="O39">
-        <v>11649175298404.86</v>
-      </c>
-      <c r="P39">
-        <v>130.6629518063845</v>
+        <v>71.28334170786572</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2548,25 +2551,25 @@
         <v>0.72793305854821</v>
       </c>
       <c r="J40">
-        <v>0.00126045891591995</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4263388.21090399</v>
+        <v>426338.821090399</v>
       </c>
       <c r="L40">
-        <v>66.2975487995588</v>
+        <v>56.29754879955879</v>
       </c>
       <c r="M40">
-        <v>5856841.038936867</v>
+        <v>585684.1038936868</v>
       </c>
       <c r="N40">
-        <v>67.67663436961304</v>
-      </c>
-      <c r="O40">
-        <v>4646594161.033984</v>
-      </c>
-      <c r="P40">
-        <v>96.67134742347525</v>
+        <v>57.67663436961304</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Datetime</t>
   </si>
@@ -61,6 +61,24 @@
     <t>C_after_wb [dB]</t>
   </si>
   <si>
+    <t>Theta X bar</t>
+  </si>
+  <si>
+    <t>Theta X</t>
+  </si>
+  <si>
+    <t>Theta Y bar</t>
+  </si>
+  <si>
+    <t>Theta Y</t>
+  </si>
+  <si>
+    <t>Wb x</t>
+  </si>
+  <si>
+    <t>Wb y</t>
+  </si>
+  <si>
     <t>2022-05-08  17:54:14</t>
   </si>
   <si>
@@ -209,9 +227,6 @@
   </si>
   <si>
     <t>SOPHY_20220508_180041_A28.2_S.hdf5</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -569,13 +584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,16 +636,34 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>28.2</v>
@@ -651,7 +684,7 @@
         <v>0.9801724426132262</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002473574648359304</v>
       </c>
       <c r="K2">
         <v>291135.1982672561</v>
@@ -665,22 +698,40 @@
       <c r="N2">
         <v>54.72792226618004</v>
       </c>
-      <c r="O2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2">
+        <v>120079039.5179059</v>
+      </c>
+      <c r="P2">
+        <v>80.79467205436565</v>
+      </c>
+      <c r="Q2">
+        <v>28.2</v>
+      </c>
+      <c r="R2">
+        <v>25.61092820746482</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>2.470951190556553</v>
+      </c>
+      <c r="U2">
+        <v>0.003146320845546832</v>
+      </c>
+      <c r="V2">
+        <v>0.7861800400490929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>29.2</v>
@@ -701,7 +752,7 @@
         <v>0.8372766025123747</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.044318000290486E-05</v>
       </c>
       <c r="K3">
         <v>341958.9292053095</v>
@@ -715,22 +766,40 @@
       <c r="N3">
         <v>56.1110499335533</v>
       </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="O3">
+        <v>39108596411.15012</v>
+      </c>
+      <c r="P3">
+        <v>105.9227222961025</v>
+      </c>
+      <c r="Q3">
+        <v>29.2</v>
+      </c>
+      <c r="R3">
+        <v>25.58426440324506</v>
+      </c>
+      <c r="S3">
+        <v>5.11</v>
+      </c>
+      <c r="T3">
+        <v>4.589598239500642</v>
+      </c>
+      <c r="U3">
+        <v>1.318024173795875E-05</v>
+      </c>
+      <c r="V3">
+        <v>0.792335998878441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>29.2</v>
@@ -751,7 +820,7 @@
         <v>0.9983463313701966</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.335558234613253E-06</v>
       </c>
       <c r="K4">
         <v>1603365.448744828</v>
@@ -765,22 +834,40 @@
       <c r="N4">
         <v>62.05751294291641</v>
       </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="O4">
+        <v>172032698568.8672</v>
+      </c>
+      <c r="P4">
+        <v>112.3561100189797</v>
+      </c>
+      <c r="Q4">
+        <v>29.2</v>
+      </c>
+      <c r="R4">
+        <v>25.52936665467368</v>
+      </c>
+      <c r="S4">
+        <v>20.8</v>
+      </c>
+      <c r="T4">
+        <v>20.83546918686387</v>
+      </c>
+      <c r="U4">
+        <v>9.345658355746739E-06</v>
+      </c>
+      <c r="V4">
+        <v>0.9989192713077006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>30.2</v>
@@ -801,7 +888,7 @@
         <v>0.9992570592935902</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.08696921721068E-08</v>
       </c>
       <c r="K5">
         <v>11524231.90528373</v>
@@ -815,22 +902,40 @@
       <c r="N5">
         <v>70.61934764088805</v>
       </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5">
+        <v>1061005216093032</v>
+      </c>
+      <c r="P5">
+        <v>150.257175189766</v>
+      </c>
+      <c r="Q5">
+        <v>30.2</v>
+      </c>
+      <c r="R5">
+        <v>25.58958929675287</v>
+      </c>
+      <c r="S5">
+        <v>20.43</v>
+      </c>
+      <c r="T5">
+        <v>20.71069764720462</v>
+      </c>
+      <c r="U5">
+        <v>1.163130160258196E-08</v>
+      </c>
+      <c r="V5">
+        <v>0.9345207048619486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>28.2</v>
@@ -851,7 +956,7 @@
         <v>0.9993171930059894</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.002264849555593874</v>
       </c>
       <c r="K6">
         <v>28951294.72396281</v>
@@ -865,22 +970,40 @@
       <c r="N6">
         <v>74.61964631073312</v>
       </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="O6">
+        <v>12791611833.98815</v>
+      </c>
+      <c r="P6">
+        <v>101.0692527211758</v>
+      </c>
+      <c r="Q6">
+        <v>28.2</v>
+      </c>
+      <c r="R6">
+        <v>25.56161875795094</v>
+      </c>
+      <c r="S6">
+        <v>20.72</v>
+      </c>
+      <c r="T6">
+        <v>20.36687724871876</v>
+      </c>
+      <c r="U6">
+        <v>0.002521074097478446</v>
+      </c>
+      <c r="V6">
+        <v>0.8983669134751555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>28.2</v>
@@ -901,7 +1024,7 @@
         <v>0.9965223974901755</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.001919803778253939</v>
       </c>
       <c r="K7">
         <v>30620514.67907426</v>
@@ -915,22 +1038,40 @@
       <c r="N7">
         <v>74.87525421981816</v>
       </c>
-      <c r="O7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="O7">
+        <v>16005475462.67114</v>
+      </c>
+      <c r="P7">
+        <v>102.0426857993266</v>
+      </c>
+      <c r="Q7">
+        <v>28.2</v>
+      </c>
+      <c r="R7">
+        <v>25.62950726220191</v>
+      </c>
+      <c r="S7">
+        <v>19.46</v>
+      </c>
+      <c r="T7">
+        <v>20.27891454728202</v>
+      </c>
+      <c r="U7">
+        <v>0.003416531659538605</v>
+      </c>
+      <c r="V7">
+        <v>0.5619159924638909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>29.2</v>
@@ -951,7 +1092,7 @@
         <v>0.9682089233775711</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.281811230775055E-05</v>
       </c>
       <c r="K8">
         <v>50299809.20064828</v>
@@ -965,22 +1106,40 @@
       <c r="N8">
         <v>77.15597256730364</v>
       </c>
-      <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="O8">
+        <v>4052968088899.633</v>
+      </c>
+      <c r="P8">
+        <v>126.0777318433154</v>
+      </c>
+      <c r="Q8">
+        <v>29.2</v>
+      </c>
+      <c r="R8">
+        <v>25.58086507446517</v>
+      </c>
+      <c r="S8">
+        <v>20.56</v>
+      </c>
+      <c r="T8">
+        <v>20.64843008693667</v>
+      </c>
+      <c r="U8">
+        <v>1.29045560364403E-05</v>
+      </c>
+      <c r="V8">
+        <v>0.9933013016142785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>29.2</v>
@@ -1001,7 +1160,7 @@
         <v>0.9747877845103711</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.772248531103062E-06</v>
       </c>
       <c r="K9">
         <v>57896498.87419739</v>
@@ -1015,22 +1174,40 @@
       <c r="N9">
         <v>77.7374222358637</v>
       </c>
-      <c r="O9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="O9">
+        <v>6077818406022.463</v>
+      </c>
+      <c r="P9">
+        <v>127.8374772002155</v>
+      </c>
+      <c r="Q9">
+        <v>29.2</v>
+      </c>
+      <c r="R9">
+        <v>25.64075216623627</v>
+      </c>
+      <c r="S9">
+        <v>19.71</v>
+      </c>
+      <c r="T9">
+        <v>20.57797084228226</v>
+      </c>
+      <c r="U9">
+        <v>1.86729445226697E-05</v>
+      </c>
+      <c r="V9">
+        <v>0.5233373086520531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>30.2</v>
@@ -1051,7 +1228,7 @@
         <v>0.9775874599781741</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.118139846841349E-06</v>
       </c>
       <c r="K10">
         <v>3992982.236265157</v>
@@ -1065,22 +1242,40 @@
       <c r="N10">
         <v>66.11141756122498</v>
       </c>
-      <c r="O10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="O10">
+        <v>3652966012683.817</v>
+      </c>
+      <c r="P10">
+        <v>125.6264563154054</v>
+      </c>
+      <c r="Q10">
+        <v>30.2</v>
+      </c>
+      <c r="R10">
+        <v>26.21316721326063</v>
+      </c>
+      <c r="S10">
+        <v>20.69</v>
+      </c>
+      <c r="T10">
+        <v>20.46859082731644</v>
+      </c>
+      <c r="U10">
+        <v>1.166258992578853E-06</v>
+      </c>
+      <c r="V10">
+        <v>0.9587406004637935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>30.2</v>
@@ -1101,7 +1296,7 @@
         <v>0.9997633469492352</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.958203673310404E-07</v>
       </c>
       <c r="K11">
         <v>5098258.471665695</v>
@@ -1115,22 +1310,40 @@
       <c r="N11">
         <v>67.07524638843726</v>
       </c>
-      <c r="O11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11">
+        <v>12883281651384.97</v>
+      </c>
+      <c r="P11">
+        <v>131.1002650134348</v>
+      </c>
+      <c r="Q11">
+        <v>30.2</v>
+      </c>
+      <c r="R11">
+        <v>26.11349333170231</v>
+      </c>
+      <c r="S11">
+        <v>19.62</v>
+      </c>
+      <c r="T11">
+        <v>20.29270185589035</v>
+      </c>
+      <c r="U11">
+        <v>5.840058014248594E-07</v>
+      </c>
+      <c r="V11">
+        <v>0.67776786868438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>28.2</v>
@@ -1151,7 +1364,7 @@
         <v>0.9751608820258877</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.00850329102930897</v>
       </c>
       <c r="K12">
         <v>44916545.13357433</v>
@@ -1165,22 +1378,40 @@
       <c r="N12">
         <v>76.63330072541061</v>
       </c>
-      <c r="O12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="O12">
+        <v>5416802849.737436</v>
+      </c>
+      <c r="P12">
+        <v>97.33743029268345</v>
+      </c>
+      <c r="Q12">
+        <v>28.2</v>
+      </c>
+      <c r="R12">
+        <v>25.88359888789246</v>
+      </c>
+      <c r="S12">
+        <v>20.76</v>
+      </c>
+      <c r="T12">
+        <v>20.33474096034671</v>
+      </c>
+      <c r="U12">
+        <v>0.009933281412274526</v>
+      </c>
+      <c r="V12">
+        <v>0.8560404841446936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>29.2</v>
@@ -1201,7 +1432,7 @@
         <v>0.9949519349068995</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0007859563481159708</v>
       </c>
       <c r="K13">
         <v>66771675.05851215</v>
@@ -1215,22 +1446,40 @@
       <c r="N13">
         <v>78.26790170301604</v>
       </c>
-      <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="O13">
+        <v>85386997833.30609</v>
+      </c>
+      <c r="P13">
+        <v>109.3139174423523</v>
+      </c>
+      <c r="Q13">
+        <v>29.2</v>
+      </c>
+      <c r="R13">
+        <v>26.32158475694812</v>
+      </c>
+      <c r="S13">
+        <v>20.43</v>
+      </c>
+      <c r="T13">
+        <v>20.60843183803741</v>
+      </c>
+      <c r="U13">
+        <v>0.0008077609361318655</v>
+      </c>
+      <c r="V13">
+        <v>0.9730061370381309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>30.2</v>
@@ -1251,7 +1500,7 @@
         <v>0.9997738564179071</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.535687106309643E-09</v>
       </c>
       <c r="K14">
         <v>2789092.580907878</v>
@@ -1265,22 +1514,40 @@
       <c r="N14">
         <v>64.45561154456945</v>
       </c>
-      <c r="O14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="O14">
+        <v>1100184424183160</v>
+      </c>
+      <c r="P14">
+        <v>150.4146549215057</v>
+      </c>
+      <c r="Q14">
+        <v>30.2</v>
+      </c>
+      <c r="R14">
+        <v>25.43260668738125</v>
+      </c>
+      <c r="S14">
+        <v>21.39</v>
+      </c>
+      <c r="T14">
+        <v>20.84221422824858</v>
+      </c>
+      <c r="U14">
+        <v>3.281747393021302E-09</v>
+      </c>
+      <c r="V14">
+        <v>0.772663707054916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>30.2</v>
@@ -1301,7 +1568,7 @@
         <v>0.9999100580597597</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.507115102307512E-09</v>
       </c>
       <c r="K15">
         <v>19629937.90438544</v>
@@ -1315,22 +1582,40 @@
       <c r="N15">
         <v>72.9295798883838</v>
       </c>
-      <c r="O15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="O15">
+        <v>3016959637142024</v>
+      </c>
+      <c r="P15">
+        <v>154.7956949993841</v>
+      </c>
+      <c r="Q15">
+        <v>30.2</v>
+      </c>
+      <c r="R15">
+        <v>25.51895365385496</v>
+      </c>
+      <c r="S15">
+        <v>20.61</v>
+      </c>
+      <c r="T15">
+        <v>20.7494025944426</v>
+      </c>
+      <c r="U15">
+        <v>6.616715272710916E-09</v>
+      </c>
+      <c r="V15">
+        <v>0.983435864188472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>28.2</v>
@@ -1351,7 +1636,7 @@
         <v>0.9915564935494877</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.001750996594351429</v>
       </c>
       <c r="K16">
         <v>3008175.154083764</v>
@@ -1365,22 +1650,40 @@
       <c r="N16">
         <v>64.81985656890333</v>
       </c>
-      <c r="O16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="O16">
+        <v>1732608160.202035</v>
+      </c>
+      <c r="P16">
+        <v>92.38700355498962</v>
+      </c>
+      <c r="Q16">
+        <v>28.2</v>
+      </c>
+      <c r="R16">
+        <v>25.51252600864294</v>
+      </c>
+      <c r="S16">
+        <v>21.43</v>
+      </c>
+      <c r="T16">
+        <v>21.02673858545723</v>
+      </c>
+      <c r="U16">
+        <v>0.002013667735231478</v>
+      </c>
+      <c r="V16">
+        <v>0.8695558674927799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>28.2</v>
@@ -1401,7 +1704,7 @@
         <v>0.9913827713127528</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.002110657018174449</v>
       </c>
       <c r="K17">
         <v>29283416.4876367</v>
@@ -1415,22 +1718,40 @@
       <c r="N17">
         <v>74.70380377078959</v>
       </c>
-      <c r="O17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="O17">
+        <v>13994671573.19841</v>
+      </c>
+      <c r="P17">
+        <v>101.4596271090355</v>
+      </c>
+      <c r="Q17">
+        <v>28.2</v>
+      </c>
+      <c r="R17">
+        <v>25.54815249791693</v>
+      </c>
+      <c r="S17">
+        <v>20.64</v>
+      </c>
+      <c r="T17">
+        <v>21.00809028573192</v>
+      </c>
+      <c r="U17">
+        <v>0.002371337560428618</v>
+      </c>
+      <c r="V17">
+        <v>0.8900702512353189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>28.2</v>
@@ -1451,7 +1772,7 @@
         <v>0.9499744750105159</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0003384136515885156</v>
       </c>
       <c r="K18">
         <v>28344624.07223937</v>
@@ -1465,22 +1786,40 @@
       <c r="N18">
         <v>74.74758765094657</v>
       </c>
-      <c r="O18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="O18">
+        <v>88167980018.50296</v>
+      </c>
+      <c r="P18">
+        <v>109.4531089095824</v>
+      </c>
+      <c r="Q18">
+        <v>28.2</v>
+      </c>
+      <c r="R18">
+        <v>25.15896008270689</v>
+      </c>
+      <c r="S18">
+        <v>20.64</v>
+      </c>
+      <c r="T18">
+        <v>20.41738737334635</v>
+      </c>
+      <c r="U18">
+        <v>0.0003531394369043853</v>
+      </c>
+      <c r="V18">
+        <v>0.9583003658697663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>28.2</v>
@@ -1501,7 +1840,7 @@
         <v>0.9192562752970302</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0003825022576678809</v>
       </c>
       <c r="K19">
         <v>29889263.31844054</v>
@@ -1515,22 +1854,40 @@
       <c r="N19">
         <v>75.12078607842717</v>
       </c>
-      <c r="O19" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="O19">
+        <v>85005026087.81882</v>
+      </c>
+      <c r="P19">
+        <v>109.2944460498103</v>
+      </c>
+      <c r="Q19">
+        <v>28.2</v>
+      </c>
+      <c r="R19">
+        <v>25.21214372971652</v>
+      </c>
+      <c r="S19">
+        <v>19.82</v>
+      </c>
+      <c r="T19">
+        <v>20.29719116303801</v>
+      </c>
+      <c r="U19">
+        <v>0.0004651937171244597</v>
+      </c>
+      <c r="V19">
+        <v>0.8222429572614901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>29.2</v>
@@ -1551,7 +1908,7 @@
         <v>0.9652080230226044</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.810587937938738E-05</v>
       </c>
       <c r="K20">
         <v>53740983.0238839</v>
@@ -1565,22 +1922,40 @@
       <c r="N20">
         <v>77.4568468303099</v>
       </c>
-      <c r="O20" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="O20">
+        <v>1981013818437.553</v>
+      </c>
+      <c r="P20">
+        <v>122.9688750494301</v>
+      </c>
+      <c r="Q20">
+        <v>29.2</v>
+      </c>
+      <c r="R20">
+        <v>25.71905924593729</v>
+      </c>
+      <c r="S20">
+        <v>20.62</v>
+      </c>
+      <c r="T20">
+        <v>20.34512788695839</v>
+      </c>
+      <c r="U20">
+        <v>2.999163464523854E-05</v>
+      </c>
+      <c r="V20">
+        <v>0.9371239584585108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>30.2</v>
@@ -1601,7 +1976,7 @@
         <v>0.998770274677926</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.583650020125034E-07</v>
       </c>
       <c r="K21">
         <v>998692.8342263228</v>
@@ -1615,22 +1990,40 @@
       <c r="N21">
         <v>59.99966325324684</v>
       </c>
-      <c r="O21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="O21">
+        <v>6314036886266.789</v>
+      </c>
+      <c r="P21">
+        <v>128.0030711468881</v>
+      </c>
+      <c r="Q21">
+        <v>30.2</v>
+      </c>
+      <c r="R21">
+        <v>25.94910137980951</v>
+      </c>
+      <c r="S21">
+        <v>21.46</v>
+      </c>
+      <c r="T21">
+        <v>21.07565489858891</v>
+      </c>
+      <c r="U21">
+        <v>1.798044289460197E-07</v>
+      </c>
+      <c r="V21">
+        <v>0.8807625203717713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>30.2</v>
@@ -1651,7 +2044,7 @@
         <v>0.9999895464760263</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.504646299204917E-07</v>
       </c>
       <c r="K22">
         <v>11853191.09424638</v>
@@ -1665,22 +2058,40 @@
       <c r="N22">
         <v>70.73839825978422</v>
       </c>
-      <c r="O22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="O22">
+        <v>78778082326872.7</v>
+      </c>
+      <c r="P22">
+        <v>138.9640540469102</v>
+      </c>
+      <c r="Q22">
+        <v>30.2</v>
+      </c>
+      <c r="R22">
+        <v>25.96283784551022</v>
+      </c>
+      <c r="S22">
+        <v>20.44</v>
+      </c>
+      <c r="T22">
+        <v>21.00908391063451</v>
+      </c>
+      <c r="U22">
+        <v>1.987573428499618E-07</v>
+      </c>
+      <c r="V22">
+        <v>0.7570267732653012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>28.2</v>
@@ -1701,7 +2112,7 @@
         <v>0.7739074094399371</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.008671336876625723</v>
       </c>
       <c r="K23">
         <v>24132628.510729</v>
@@ -1715,22 +2126,40 @@
       <c r="N23">
         <v>74.93915622923825</v>
       </c>
-      <c r="O23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="O23">
+        <v>3596081818.313697</v>
+      </c>
+      <c r="P23">
+        <v>95.55829564273074</v>
+      </c>
+      <c r="Q23">
+        <v>28.2</v>
+      </c>
+      <c r="R23">
+        <v>30.50520422368435</v>
+      </c>
+      <c r="S23">
+        <v>20.82</v>
+      </c>
+      <c r="T23">
+        <v>21.2780658290691</v>
+      </c>
+      <c r="U23">
+        <v>0.01038506024938377</v>
+      </c>
+      <c r="V23">
+        <v>0.8349818555111671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>30.2</v>
@@ -1751,7 +2180,7 @@
         <v>0.8701825241789936</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.857421997606231E-08</v>
       </c>
       <c r="K24">
         <v>14511245.35236083</v>
@@ -1765,22 +2194,40 @@
       <c r="N24">
         <v>72.22094327972837</v>
       </c>
-      <c r="O24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="O24">
+        <v>188272544245701.7</v>
+      </c>
+      <c r="P24">
+        <v>142.7478699154096</v>
+      </c>
+      <c r="Q24">
+        <v>30.2</v>
+      </c>
+      <c r="R24">
+        <v>25.88207699229464</v>
+      </c>
+      <c r="S24">
+        <v>20.78</v>
+      </c>
+      <c r="T24">
+        <v>20.2805578833996</v>
+      </c>
+      <c r="U24">
+        <v>1.097536326624548E-07</v>
+      </c>
+      <c r="V24">
+        <v>0.8070276839808167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>30.2</v>
@@ -1801,7 +2248,7 @@
         <v>0.8701825241789936</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.815036507600419E-08</v>
       </c>
       <c r="K25">
         <v>15996640.58629501</v>
@@ -1815,22 +2262,40 @@
       <c r="N25">
         <v>72.64418430019116</v>
       </c>
-      <c r="O25" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="O25">
+        <v>187295141035280.4</v>
+      </c>
+      <c r="P25">
+        <v>142.7252651069645</v>
+      </c>
+      <c r="Q25">
+        <v>30.2</v>
+      </c>
+      <c r="R25">
+        <v>25.88207699229464</v>
+      </c>
+      <c r="S25">
+        <v>19.92</v>
+      </c>
+      <c r="T25">
+        <v>20.2805578833996</v>
+      </c>
+      <c r="U25">
+        <v>1.097536326624548E-07</v>
+      </c>
+      <c r="V25">
+        <v>0.8942789654886772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>28.2</v>
@@ -1851,7 +2316,7 @@
         <v>0.9734626125274396</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.00301700557998527</v>
       </c>
       <c r="K26">
         <v>729434.3788309126</v>
@@ -1865,22 +2330,40 @@
       <c r="N26">
         <v>58.74666951744828</v>
       </c>
-      <c r="O26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="O26">
+        <v>248365253.9186092</v>
+      </c>
+      <c r="P26">
+        <v>83.95090838336637</v>
+      </c>
+      <c r="Q26">
+        <v>28.2</v>
+      </c>
+      <c r="R26">
+        <v>25.78257790965887</v>
+      </c>
+      <c r="S26">
+        <v>21.86</v>
+      </c>
+      <c r="T26">
+        <v>20.90700873230562</v>
+      </c>
+      <c r="U26">
+        <v>0.006585443915485074</v>
+      </c>
+      <c r="V26">
+        <v>0.4581324537425724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>28.2</v>
@@ -1901,7 +2384,7 @@
         <v>0.9734626125274396</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.006436777156191609</v>
       </c>
       <c r="K27">
         <v>15850713.04215262</v>
@@ -1915,22 +2398,40 @@
       <c r="N27">
         <v>72.11729527306224</v>
       </c>
-      <c r="O27" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="O27">
+        <v>2529653591.597034</v>
+      </c>
+      <c r="P27">
+        <v>94.03061053366251</v>
+      </c>
+      <c r="Q27">
+        <v>28.2</v>
+      </c>
+      <c r="R27">
+        <v>25.78257790965887</v>
+      </c>
+      <c r="S27">
+        <v>21.07</v>
+      </c>
+      <c r="T27">
+        <v>20.90700873230562</v>
+      </c>
+      <c r="U27">
+        <v>0.006585443915485074</v>
+      </c>
+      <c r="V27">
+        <v>0.9774249448934055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>29.2</v>
@@ -1951,7 +2452,7 @@
         <v>0.9855421541523047</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.001250628704096073</v>
       </c>
       <c r="K28">
         <v>1961933.754013337</v>
@@ -1965,22 +2466,40 @@
       <c r="N28">
         <v>62.99009134156265</v>
       </c>
-      <c r="O28" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="O28">
+        <v>1591771563.447758</v>
+      </c>
+      <c r="P28">
+        <v>92.01880741886242</v>
+      </c>
+      <c r="Q28">
+        <v>29.2</v>
+      </c>
+      <c r="R28">
+        <v>26.47493192641952</v>
+      </c>
+      <c r="S28">
+        <v>21.76</v>
+      </c>
+      <c r="T28">
+        <v>21.16780987464984</v>
+      </c>
+      <c r="U28">
+        <v>0.001690570207044908</v>
+      </c>
+      <c r="V28">
+        <v>0.7397673866985707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <v>29.2</v>
@@ -2001,7 +2520,7 @@
         <v>0.9755917719794568</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.001955598733578222</v>
       </c>
       <c r="K29">
         <v>37592136.31248179</v>
@@ -2015,22 +2534,40 @@
       <c r="N29">
         <v>75.85828877937666</v>
       </c>
-      <c r="O29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="O29">
+        <v>19703760980.61357</v>
+      </c>
+      <c r="P29">
+        <v>102.9454913058956</v>
+      </c>
+      <c r="Q29">
+        <v>29.2</v>
+      </c>
+      <c r="R29">
+        <v>26.51745340574022</v>
+      </c>
+      <c r="S29">
+        <v>20.97</v>
+      </c>
+      <c r="T29">
+        <v>21.21597694064302</v>
+      </c>
+      <c r="U29">
+        <v>0.002059988764941746</v>
+      </c>
+      <c r="V29">
+        <v>0.9493249511161886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>30.2</v>
@@ -2051,7 +2588,7 @@
         <v>0.9881813844857236</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.759979686489737E-08</v>
       </c>
       <c r="K30">
         <v>225054.8794154377</v>
@@ -2065,22 +2602,40 @@
       <c r="N30">
         <v>53.57451764992778</v>
       </c>
-      <c r="O30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="O30">
+        <v>12940292993926.07</v>
+      </c>
+      <c r="P30">
+        <v>131.1194410973336</v>
+      </c>
+      <c r="Q30">
+        <v>30.2</v>
+      </c>
+      <c r="R30">
+        <v>25.69166196501929</v>
+      </c>
+      <c r="S30">
+        <v>21.97</v>
+      </c>
+      <c r="T30">
+        <v>21.30001122865929</v>
+      </c>
+      <c r="U30">
+        <v>2.588611562808741E-08</v>
+      </c>
+      <c r="V30">
+        <v>0.679893311061352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>30.2</v>
@@ -2101,7 +2656,7 @@
         <v>0.9969703896697774</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2.560859267082879E-08</v>
       </c>
       <c r="K31">
         <v>7599007.544095725</v>
@@ -2115,22 +2670,40 @@
       <c r="N31">
         <v>68.82074615844415</v>
       </c>
-      <c r="O31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="O31">
+        <v>297638360434745.6</v>
+      </c>
+      <c r="P31">
+        <v>144.7368890352543</v>
+      </c>
+      <c r="Q31">
+        <v>30.2</v>
+      </c>
+      <c r="R31">
+        <v>25.72860430203065</v>
+      </c>
+      <c r="S31">
+        <v>20.78</v>
+      </c>
+      <c r="T31">
+        <v>21.36674785227729</v>
+      </c>
+      <c r="U31">
+        <v>3.44267111932204E-08</v>
+      </c>
+      <c r="V31">
+        <v>0.7438582363299303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <v>28.2</v>
@@ -2151,7 +2724,7 @@
         <v>0.9903217237596409</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.0005652435043151322</v>
       </c>
       <c r="K32">
         <v>2209866.046674517</v>
@@ -2165,22 +2738,40 @@
       <c r="N32">
         <v>63.48589643406341</v>
       </c>
-      <c r="O32" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="O32">
+        <v>3947790187.145123</v>
+      </c>
+      <c r="P32">
+        <v>95.96354063200624</v>
+      </c>
+      <c r="Q32">
+        <v>28.2</v>
+      </c>
+      <c r="R32">
+        <v>25.26584124686779</v>
+      </c>
+      <c r="S32">
+        <v>21.65</v>
+      </c>
+      <c r="T32">
+        <v>21.34775409513545</v>
+      </c>
+      <c r="U32">
+        <v>0.0006114142594635894</v>
+      </c>
+      <c r="V32">
+        <v>0.9244853150972239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D33">
         <v>28.2</v>
@@ -2201,7 +2792,7 @@
         <v>0.9762386169624914</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.0004784591351917719</v>
       </c>
       <c r="K33">
         <v>27751910.77451887</v>
@@ -2215,22 +2806,40 @@
       <c r="N33">
         <v>74.53736907532311</v>
       </c>
-      <c r="O33" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="O33">
+        <v>59414446629.76423</v>
+      </c>
+      <c r="P33">
+        <v>107.7389205657637</v>
+      </c>
+      <c r="Q33">
+        <v>28.2</v>
+      </c>
+      <c r="R33">
+        <v>25.24572886438469</v>
+      </c>
+      <c r="S33">
+        <v>20.85</v>
+      </c>
+      <c r="T33">
+        <v>21.25847803622334</v>
+      </c>
+      <c r="U33">
+        <v>0.0005522402081893794</v>
+      </c>
+      <c r="V33">
+        <v>0.8663967746218402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <v>29.2</v>
@@ -2251,7 +2860,7 @@
         <v>0.5373001009570524</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.0007758210007623096</v>
       </c>
       <c r="K34">
         <v>4528361.064078991</v>
@@ -2265,22 +2874,40 @@
       <c r="N34">
         <v>69.25724125400575</v>
       </c>
-      <c r="O34" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="O34">
+        <v>10863320533.27965</v>
+      </c>
+      <c r="P34">
+        <v>100.3596259402447</v>
+      </c>
+      <c r="Q34">
+        <v>29.2</v>
+      </c>
+      <c r="R34">
+        <v>26.41007190665697</v>
+      </c>
+      <c r="S34">
+        <v>21.9</v>
+      </c>
+      <c r="T34">
+        <v>22.64061764602994</v>
+      </c>
+      <c r="U34">
+        <v>0.001243112284679651</v>
+      </c>
+      <c r="V34">
+        <v>0.6240956752850675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>30.2</v>
@@ -2301,7 +2928,7 @@
         <v>0.9651685395302179</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2.518005988448954E-08</v>
       </c>
       <c r="K35">
         <v>855880.4767144566</v>
@@ -2315,22 +2942,40 @@
       <c r="N35">
         <v>59.47809962623527</v>
       </c>
-      <c r="O35" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="O35">
+        <v>35217068654983.79</v>
+      </c>
+      <c r="P35">
+        <v>135.4675320398939</v>
+      </c>
+      <c r="Q35">
+        <v>30.2</v>
+      </c>
+      <c r="R35">
+        <v>25.72629021263568</v>
+      </c>
+      <c r="S35">
+        <v>21.67</v>
+      </c>
+      <c r="T35">
+        <v>21.08416106057343</v>
+      </c>
+      <c r="U35">
+        <v>3.381962204557324E-08</v>
+      </c>
+      <c r="V35">
+        <v>0.7445399552531508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D36">
         <v>30.2</v>
@@ -2351,7 +2996,7 @@
         <v>0.9774070533769117</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.495849306825334E-08</v>
       </c>
       <c r="K36">
         <v>12072587.19949149</v>
@@ -2365,22 +3010,40 @@
       <c r="N36">
         <v>70.91724882210207</v>
       </c>
-      <c r="O36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="O36">
+        <v>825728049708328.1</v>
+      </c>
+      <c r="P36">
+        <v>149.1683703768618</v>
+      </c>
+      <c r="Q36">
+        <v>30.2</v>
+      </c>
+      <c r="R36">
+        <v>25.62663455721775</v>
+      </c>
+      <c r="S36">
+        <v>20.85</v>
+      </c>
+      <c r="T36">
+        <v>21.06797515105077</v>
+      </c>
+      <c r="U36">
+        <v>1.558201082496235E-08</v>
+      </c>
+      <c r="V36">
+        <v>0.9599847693784068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D37">
         <v>28.2</v>
@@ -2401,7 +3064,7 @@
         <v>0.9767229290897765</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.01927847380303524</v>
       </c>
       <c r="K37">
         <v>17604505.84924038</v>
@@ -2415,22 +3078,40 @@
       <c r="N37">
         <v>72.55852455989431</v>
       </c>
-      <c r="O37" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="O37">
+        <v>934931530.0253701</v>
+      </c>
+      <c r="P37">
+        <v>89.70779806358081</v>
+      </c>
+      <c r="Q37">
+        <v>28.2</v>
+      </c>
+      <c r="R37">
+        <v>26.15334554713331</v>
+      </c>
+      <c r="S37">
+        <v>19.87</v>
+      </c>
+      <c r="T37">
+        <v>19.23326443013306</v>
+      </c>
+      <c r="U37">
+        <v>0.02731567171376547</v>
+      </c>
+      <c r="V37">
+        <v>0.7057660527278936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <v>28.2</v>
@@ -2451,7 +3132,7 @@
         <v>0.9440112514160018</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.01052933338232311</v>
       </c>
       <c r="K38">
         <v>1403111.235803583</v>
@@ -2465,22 +3146,40 @@
       <c r="N38">
         <v>61.72114931808036</v>
       </c>
-      <c r="O38" t="s">
-        <v>65</v>
-      </c>
-      <c r="P38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="O38">
+        <v>141160781.8617166</v>
+      </c>
+      <c r="P38">
+        <v>81.49714055166032</v>
+      </c>
+      <c r="Q38">
+        <v>28.2</v>
+      </c>
+      <c r="R38">
+        <v>26.02441615459356</v>
+      </c>
+      <c r="S38">
+        <v>18.65</v>
+      </c>
+      <c r="T38">
+        <v>19.40149815999095</v>
+      </c>
+      <c r="U38">
+        <v>0.01710841907012559</v>
+      </c>
+      <c r="V38">
+        <v>0.6154474787626195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D39">
         <v>29.2</v>
@@ -2501,7 +3200,7 @@
         <v>0.3612158146504303</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.153556817350658E-05</v>
       </c>
       <c r="K39">
         <v>4854012.909258463</v>
@@ -2515,22 +3214,40 @@
       <c r="N39">
         <v>71.28334170786572</v>
       </c>
-      <c r="O39" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="O39">
+        <v>1164917529840.486</v>
+      </c>
+      <c r="P39">
+        <v>120.6629518063845</v>
+      </c>
+      <c r="Q39">
+        <v>29.2</v>
+      </c>
+      <c r="R39">
+        <v>25.56668504832726</v>
+      </c>
+      <c r="S39">
+        <v>14.63</v>
+      </c>
+      <c r="T39">
+        <v>14.46375775153846</v>
+      </c>
+      <c r="U39">
+        <v>1.181286127519606E-05</v>
+      </c>
+      <c r="V39">
+        <v>0.9765261696358259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <v>28.2</v>
@@ -2551,7 +3268,7 @@
         <v>0.72793305854821</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.00126045891591995</v>
       </c>
       <c r="K40">
         <v>426338.821090399</v>
@@ -2565,11 +3282,29 @@
       <c r="N40">
         <v>57.67663436961304</v>
       </c>
-      <c r="O40" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" t="s">
-        <v>65</v>
+      <c r="O40">
+        <v>464659416.1033984</v>
+      </c>
+      <c r="P40">
+        <v>86.67134742347525</v>
+      </c>
+      <c r="Q40">
+        <v>28.2</v>
+      </c>
+      <c r="R40">
+        <v>25.50684493808128</v>
+      </c>
+      <c r="S40">
+        <v>12.49</v>
+      </c>
+      <c r="T40">
+        <v>11.77271924669158</v>
+      </c>
+      <c r="U40">
+        <v>0.001961451278908088</v>
+      </c>
+      <c r="V40">
+        <v>0.642615460028979</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Datetime</t>
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
   </si>
   <si>
     <t>Azimuth</t>
@@ -584,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,2656 +660,2896 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2">
+        <v>29.27</v>
+      </c>
+      <c r="E2">
+        <v>15.08</v>
+      </c>
+      <c r="F2">
         <v>28.2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>195</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>196.0507022400234</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.00019707026738626</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-37.05378894158515</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.9801724426132262</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.002473574648359304</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>291135.1982672561</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>54.6409471484843</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>297024.4679508271</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>54.72792226618004</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>120079039.5179059</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>80.79467205436565</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>28.2</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>25.61092820746482</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>3</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>2.470951190556553</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.003146320845546832</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.7861800400490929</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
+        <v>26.28</v>
+      </c>
+      <c r="E3">
+        <v>16.87</v>
+      </c>
+      <c r="F3">
         <v>29.2</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>195</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>198.1289365248657</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.0002219127803653682</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-36.53817685229357</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.8372766025123747</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1.044318000290486E-05</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>341958.9292053095</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>55.33973948481283</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>408418.1119825995</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>56.1110499335533</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>39108596411.15012</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>105.9227222961025</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>29.2</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>25.58426440324506</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>5.11</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>4.589598239500642</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>1.318024173795875E-05</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.792335998878441</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
+        <v>29.4</v>
+      </c>
+      <c r="E4">
+        <v>16.27</v>
+      </c>
+      <c r="F4">
         <v>29.2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>210</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>209.6979504355611</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.0008291932874462918</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-30.81344222300361</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.9983463313701966</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>9.335558234613253E-06</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1603365.448744828</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>62.05032520660184</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1606021.275747328</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>62.05751294291641</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>172032698568.8672</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>112.3561100189797</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>29.2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>25.52936665467368</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>20.8</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>20.83546918686387</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>9.345658355746739E-06</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.9989192713077006</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5">
+        <v>28.8</v>
+      </c>
+      <c r="E5">
+        <v>15.73</v>
+      </c>
+      <c r="F5">
         <v>30.2</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>210</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>209.7975899523189</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.005948534837837197</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-22.25589990607552</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.9992570592935902</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1.08696921721068E-08</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>11524231.90528373</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>70.61611989123446</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>11532800.09193091</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>70.61934764088805</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1061005216093032</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>150.257175189766</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>30.2</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>25.58958929675287</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>20.43</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>20.71069764720462</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>1.163130160258196E-08</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.9345207048619486</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6">
+        <v>26.94</v>
+      </c>
+      <c r="E6">
+        <v>16.33</v>
+      </c>
+      <c r="F6">
         <v>28.2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>210</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>210.194042757491</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.01483154444300371</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>-18.28813622528604</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.9993171930059894</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.002264849555593874</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>28951294.72396281</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>74.61667990477942</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>28971076.37753741</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>74.61964631073312</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>12791611833.98815</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>101.0692527211758</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>28.2</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>25.56161875795094</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>20.72</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>20.36687724871876</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.002521074097478446</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.8983669134751555</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7">
+        <v>26.01</v>
+      </c>
+      <c r="E7">
+        <v>16.12</v>
+      </c>
+      <c r="F7">
         <v>28.2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>210</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>210.4382202029931</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.0156139939204442</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-18.06485994070732</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.9965223974901755</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.001919803778253939</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>30620514.67907426</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>74.86012486179465</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>30727372.26598677</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>74.87525421981816</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>16005475462.67114</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>102.0426857993266</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>28.2</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>25.62950726220191</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>19.46</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>20.27891454728202</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.003416531659538605</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.5619159924638909</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8">
+        <v>30.6</v>
+      </c>
+      <c r="E8">
+        <v>14.16</v>
+      </c>
+      <c r="F8">
         <v>29.2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>210</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>208.6654796362283</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.02653162839720897</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-15.76236094072733</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.9682089233775711</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>1.281811230775055E-05</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>50299809.20064828</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>77.01566337674959</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>51951400.14324463</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>77.15597256730364</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>4052968088899.633</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>126.0777318433154</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>29.2</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>25.58086507446517</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>20.56</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>20.64843008693667</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>1.29045560364403E-05</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.9933013016142785</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9">
+        <v>29.91</v>
+      </c>
+      <c r="E9">
+        <v>13.93</v>
+      </c>
+      <c r="F9">
         <v>29.2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>210</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>208.8135583417705</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.03045211948808765</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-15.16382474789822</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.9747877845103711</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>9.772248531103062E-06</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>57896498.87419739</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>77.62652301800145</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>59393951.99056417</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>77.7374222358637</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>6077818406022.463</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>127.8374772002155</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>29.2</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>25.64075216623627</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>19.71</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>20.57797084228226</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>1.86729445226697E-05</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.5233373086520531</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10">
+        <v>27.4</v>
+      </c>
+      <c r="E10">
+        <v>11.54</v>
+      </c>
+      <c r="F10">
         <v>30.2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>210</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>208.8821686487485</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.002097451402553183</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-26.78308092881856</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.9775874599781741</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>1.118139846841349E-06</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>3992982.236265157</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>66.01297378135941</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>4084526.857938936</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>66.11141756122498</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>3652966012683.817</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>125.6264563154054</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>30.2</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>26.21316721326063</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>20.69</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>20.46859082731644</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>1.166258992578853E-06</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.9587406004637935</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
+        <v>25.54</v>
+      </c>
+      <c r="E11">
+        <v>13.2</v>
+      </c>
+      <c r="F11">
         <v>30.2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>210</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>209.8857763452887</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.002627179927346712</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-25.80510182722903</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.9997633469492352</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>3.958203673310404E-07</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>5098258.471665695</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>67.07421849566475</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>5099465.275680454</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>67.07524638843726</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>12883281651384.97</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>131.1002650134348</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>30.2</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>26.11349333170231</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>19.62</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>20.29270185589035</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>5.840058014248594E-07</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.67776786868438</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12">
+        <v>23.98</v>
+      </c>
+      <c r="E12">
+        <v>14.95</v>
+      </c>
+      <c r="F12">
         <v>28.2</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>210</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>211.1775181074078</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.02258476719427794</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>-16.46184381824374</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.9751608820258877</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.00850329102930897</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>44916545.13357433</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>76.52406344046955</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>46060651.07970761</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>76.63330072541061</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>5416802849.737436</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>97.33743029268345</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>28.2</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>25.88359888789246</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>20.76</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>20.33474096034671</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.009933281412274526</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.8560404841446936</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13">
+        <v>26.12</v>
+      </c>
+      <c r="E13">
+        <v>10.59</v>
+      </c>
+      <c r="F13">
         <v>29.2</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>210</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>209.4718150559568</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.03468086235291671</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>-14.59910112163044</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.9949519349068995</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.0007859563481159708</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>66771675.05851215</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>78.24592271239381</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>67110452.99365157</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>78.26790170301604</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>85386997833.30609</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>109.3139174423523</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>29.2</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>26.32158475694812</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>20.43</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>20.60843183803741</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0.0008077609361318655</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.9730061370381309</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14">
+        <v>29.45</v>
+      </c>
+      <c r="E14">
+        <v>17.43</v>
+      </c>
+      <c r="F14">
         <v>30.2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>210</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>209.8883417054267</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.001437175037798427</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>-28.42490334635038</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.9997738564179071</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>2.535687106309643E-09</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>2789092.580907878</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>64.4546293044034</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>2789723.458963937</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>64.45561154456945</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>1100184424183160</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>150.4146549215057</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>30.2</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>25.43260668738125</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>21.39</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>20.84221422824858</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>3.281747393021302E-09</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.772663707054916</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15">
+        <v>28.53</v>
+      </c>
+      <c r="E15">
+        <v>17.01</v>
+      </c>
+      <c r="F15">
         <v>30.2</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>210</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>210.0704150015083</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.01007997261374177</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>-19.96540647822734</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.9999100580597597</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>6.507115102307512E-09</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>19629937.90438544</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>72.92918925793312</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>19631703.61789905</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>72.9295798883838</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>3016959637142024</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>154.7956949993841</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>30.2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>25.51895365385496</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>20.61</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>20.7494025944426</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>6.616715272710916E-09</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.983435864188472</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16">
+        <v>30.64</v>
+      </c>
+      <c r="E16">
+        <v>15.33</v>
+      </c>
+      <c r="F16">
         <v>28.2</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>210</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>209.3163155461205</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.001567078649776637</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>-28.04909206271149</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.9915564935494877</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.001750996594351429</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>3008175.154083764</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>64.78303119897475</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>3033790.987859259</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>64.81985656890333</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>1732608160.202035</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>92.38700355498962</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>28.2</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>25.51252600864294</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>21.43</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>21.02673858545723</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0.002013667735231478</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.8695558674927799</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17">
+        <v>30.45</v>
+      </c>
+      <c r="E17">
+        <v>15.11</v>
+      </c>
+      <c r="F17">
         <v>28.2</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>210</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>209.3092878572185</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.01525695073994643</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>-18.16532255971019</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.9913827713127528</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.002110657018174449</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>29283416.4876367</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>74.66621744352534</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>29537951.77301768</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>74.70380377078959</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>13994671573.19841</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>101.4596271090355</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>28.2</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>25.54815249791693</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>20.64</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>21.00809028573192</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0.002371337560428618</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.8900702512353189</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18">
+        <v>25.7</v>
+      </c>
+      <c r="E18">
+        <v>21.25</v>
+      </c>
+      <c r="F18">
         <v>28.2</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>210</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>211.681970271471</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.0141167662911944</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>-18.50264775148805</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.9499744750105159</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.0003384136515885156</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>28344624.07223937</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>74.52470701424548</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>29837248.07124487</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>74.74758765094657</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>88167980018.50296</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>109.4531089095824</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>28.2</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>25.15896008270689</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>20.64</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>20.41738737334635</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0.0003531394369043853</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.9583003658697663</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19">
+        <v>24.25</v>
+      </c>
+      <c r="E19">
+        <v>21.35</v>
+      </c>
+      <c r="F19">
         <v>28.2</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>210</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>212.1542961883526</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.01475393575291437</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>-18.3109211204041</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.9192562752970302</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.0003825022576678809</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>29889263.31844054</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>74.75515211102214</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>32514614.39170781</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>75.12078607842717</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>85005026087.81882</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>109.2944460498103</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>28.2</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>25.21214372971652</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>19.82</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>20.29719116303801</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>0.0004651937171244597</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.8222429572614901</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20">
+        <v>24.15</v>
+      </c>
+      <c r="E20">
+        <v>16.93</v>
+      </c>
+      <c r="F20">
         <v>29.2</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>210</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>211.3971636510354</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.0269097078120335</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>-15.70091017818202</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.9652080230226044</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>2.810587937938738E-05</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>53740983.0238839</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>77.30305606234546</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>55678135.42990548</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>77.4568468303099</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>1981013818437.553</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>122.9688750494301</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>29.2</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>25.71905924593729</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>20.62</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>20.34512788695839</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>2.999163464523854E-05</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.9371239584585108</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21">
+        <v>28.53</v>
+      </c>
+      <c r="E21">
+        <v>12.54</v>
+      </c>
+      <c r="F21">
         <v>30.2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>210</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>209.7395574472834</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.0005160722945978396</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>-32.87289455454848</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.998770274677926</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>1.583650020125034E-07</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>998692.8342263228</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>59.99431933758245</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>999922.4642006611</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>59.99966325324684</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>6314036886266.789</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>128.0030711468881</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>30.2</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>25.94910137980951</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>21.46</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>21.07565489858891</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>1.798044289460197E-07</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.8807625203717713</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22">
+        <v>27.77</v>
+      </c>
+      <c r="E22">
+        <v>12.8</v>
+      </c>
+      <c r="F22">
         <v>30.2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>210</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>210.0240052811064</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.006091995027154542</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>-22.15240459846866</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.9999895464760263</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>1.504646299204917E-07</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>11853191.09424638</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>70.73835286046915</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>11853315.00315893</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>70.73839825978422</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>78778082326872.7</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>138.9640540469102</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>30.2</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>25.96283784551022</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>20.44</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>21.00908391063451</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>1.987573428499618E-07</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.7570267732653012</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23">
+        <v>29.66</v>
+      </c>
+      <c r="E23">
+        <v>-0.77</v>
+      </c>
+      <c r="F23">
         <v>28.2</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>210</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>206.2411830315195</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.01333837928776277</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>-18.7489693722173</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.7739074094399371</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.008671336876625723</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>24132628.510729</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>73.82604627567079</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>31182836.88250685</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>74.93915622923825</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>3596081818.313697</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>95.55829564273074</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>28.2</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>30.50520422368435</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>20.82</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>21.2780658290691</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>0.01038506024938377</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.8349818555111671</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24">
+        <v>20.56</v>
+      </c>
+      <c r="E24">
+        <v>16.25</v>
+      </c>
+      <c r="F24">
         <v>30.2</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>210</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>212.7686201554458</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>0.007080670365843259</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>-21.49925623326556</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.8701825241789936</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>8.857421997606231E-08</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>14511245.35236083</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>71.61704685108299</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>16676093.74947171</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>72.22094327972837</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>188272544245701.7</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>142.7478699154096</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>30.2</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>25.88207699229464</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>20.78</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>20.2805578833996</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>1.097536326624548E-07</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.8070276839808167</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25">
+        <v>20.56</v>
+      </c>
+      <c r="E25">
+        <v>16.25</v>
+      </c>
+      <c r="F25">
         <v>30.2</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>210</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>212.7686201554458</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.007805459573047413</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>-21.07601521280278</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.8701825241789936</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>9.815036507600419E-08</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>15996640.58629501</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>72.04028787154576</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>18383086.46957446</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>72.64418430019116</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>187295141035280.4</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>142.7252651069645</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>30.2</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>25.88207699229464</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>19.92</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>20.2805578833996</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>1.097536326624548E-07</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.8942789654886772</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26">
+        <v>25.93</v>
+      </c>
+      <c r="E26">
+        <v>15.3</v>
+      </c>
+      <c r="F26">
         <v>28.2</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>210</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>211.2176347108251</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.0003664928686358408</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>-34.35934471615582</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.9734626125274396</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.00301700557998527</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>729434.3788309126</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>58.62986228109528</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>749319.3569469023</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>58.74666951744828</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>248365253.9186092</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>83.95090838336637</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>28.2</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>25.78257790965887</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>21.86</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>20.90700873230562</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>0.006585443915485074</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.4581324537425724</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27">
+        <v>25.93</v>
+      </c>
+      <c r="E27">
+        <v>15.3</v>
+      </c>
+      <c r="F27">
         <v>28.2</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>210</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>211.2176347108251</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.007963942283680941</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>-20.98871896054185</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.9734626125274396</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.006436777156191609</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>15850713.04215262</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>72.00048803670926</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>16282816.45146985</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>72.11729527306224</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>2529653591.597034</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>94.03061053366251</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>28.2</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>25.78257790965887</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>21.07</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>20.90700873230562</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>0.006585443915485074</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.9774249448934055</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28">
+        <v>27.73</v>
+      </c>
+      <c r="E28">
+        <v>8.31</v>
+      </c>
+      <c r="F28">
         <v>29.2</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>210</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>209.1040054335272</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.001026206902364145</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>-29.88765068565277</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.9855421541523047</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.001250628704096073</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>1961933.754013337</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>62.92684339051996</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>1990715.207611649</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>62.99009134156265</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>1591771563.447758</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>92.01880741886242</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>29.2</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>26.47493192641952</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>21.76</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>21.16780987464984</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>0.001690570207044908</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.7397673866985707</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29">
+        <v>28.21</v>
+      </c>
+      <c r="E29">
+        <v>7.74</v>
+      </c>
+      <c r="F29">
         <v>29.2</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>210</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>208.8328682862318</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.01976521727703535</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>-17.04098407139435</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.9755917719794568</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.001955598733578222</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>37592136.31248179</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>75.7509700680877</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>38532650.02041589</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>75.85828877937666</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>19703760980.61357</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>102.9454913058956</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>29.2</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>26.51745340574022</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>20.97</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>21.21597694064302</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>0.002059988764941746</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.9493249511161886</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30">
+        <v>28.17</v>
+      </c>
+      <c r="E30">
+        <v>15.27</v>
+      </c>
+      <c r="F30">
         <v>30.2</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>210</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>210.8095564875114</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.0001139533914473321</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>-39.43272744946581</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.9881813844857236</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>1.759979686489737E-08</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>225054.8794154377</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>53.52288433316387</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>227746.5280653535</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>53.57451764992778</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>12940292993926.07</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>131.1194410973336</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>30.2</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>25.69166196501929</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>21.97</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>21.30001122865929</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>2.588611562808741E-08</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.679893311061352</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31">
+        <v>28.89</v>
+      </c>
+      <c r="E31">
+        <v>14.71</v>
+      </c>
+      <c r="F31">
         <v>30.2</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>210</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>210.4089752621524</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.003877035973083401</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>-24.11500169372171</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.9969703896697774</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>2.560859267082879E-08</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>7599007.544095725</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>68.80756875666614</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>7622099.535586723</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>68.82074615844415</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>297638360434745.6</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>144.7368890352543</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>30.2</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>25.72860430203065</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>20.78</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>21.36674785227729</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>3.44267111932204E-08</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.7438582363299303</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32">
+        <v>29.81</v>
+      </c>
+      <c r="E32">
+        <v>18.46</v>
+      </c>
+      <c r="F32">
         <v>28.2</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>210</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>210.7321977261771</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.001120578701036525</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-29.50557636473318</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.9903217237596409</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>0.0005652435043151322</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>2209866.046674517</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>63.44365949271885</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>2231462.759682801</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>63.48589643406341</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>3947790187.145123</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>95.96354063200624</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>28.2</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>25.26584124686779</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>21.65</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>21.34775409513545</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>0.0006114142594635894</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>0.9244853150972239</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33">
+        <v>28.91</v>
+      </c>
+      <c r="E33">
+        <v>19.14</v>
+      </c>
+      <c r="F33">
         <v>28.2</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>210</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>211.151372707646</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.01396102336596931</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>-18.55082746046391</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>0.9762386169624914</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0.0004784591351917719</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>27751910.77451887</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>74.43292890531164</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>28427384.75237468</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>74.53736907532311</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>59414446629.76423</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>107.7389205657637</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>28.2</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>25.24572886438469</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>20.85</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>21.25847803622334</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>0.0005522402081893794</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>0.8663967746218402</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D34">
+        <v>138.15</v>
+      </c>
+      <c r="E34">
+        <v>3.6</v>
+      </c>
+      <c r="F34">
         <v>29.2</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>210</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>204.1481996833504</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.002607106846172852</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>-25.83841169923955</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>0.5373001009570524</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>0.0007758210007623096</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>4528361.064078991</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>66.55941047571886</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>8427992.207730766</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>69.25724125400575</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>10863320533.27965</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>100.3596259402447</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>29.2</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>26.41007190665697</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>21.9</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>22.64061764602994</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>0.001243112284679651</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>0.6240956752850675</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35">
+        <v>31.26</v>
+      </c>
+      <c r="E35">
+        <v>14.1</v>
+      </c>
+      <c r="F35">
         <v>30.2</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>210</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>208.6020295794524</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.0004520005900016816</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>-33.44860998298557</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>0.9651685395302179</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>2.518005988448954E-08</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>855880.4767144566</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>59.32413119901818</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>886767.8976886714</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>59.47809962623527</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>35217068654983.79</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>135.4675320398939</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>30.2</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>25.72629021263568</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>21.67</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>21.08416106057343</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>3.381962204557324E-08</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>0.7445399552531508</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36">
+        <v>31.11</v>
+      </c>
+      <c r="E36">
+        <v>15.07</v>
+      </c>
+      <c r="F36">
         <v>30.2</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>210</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>208.8776271638273</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.006342093636971059</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>-21.97767350180323</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>0.9774070533769117</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>1.495849306825334E-08</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>12072587.19949149</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>70.81800350963766</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>12351647.30782438</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>70.91724882210207</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>825728049708328.1</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>149.1683703768618</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>30.2</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>25.62663455721775</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>20.85</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>21.06797515105077</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>1.558201082496235E-08</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>0.9599847693784068</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:24">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37">
+        <v>24.5</v>
+      </c>
+      <c r="E37">
+        <v>12.8</v>
+      </c>
+      <c r="F37">
         <v>28.2</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>210</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>208.8605622560722</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.009251199956149508</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>-20.33801932067983</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>0.9767229290897765</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>0.01927847380303524</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>17604505.84924038</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>72.45623839121622</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>18024053.00922575</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>72.55852455989431</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>934931530.0253701</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>89.70779806358081</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>28.2</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>26.15334554713331</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>19.87</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>19.23326443013306</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>0.02731567171376547</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>0.7057660527278936</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:24">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38">
+        <v>26.54</v>
+      </c>
+      <c r="E38">
+        <v>12.98</v>
+      </c>
+      <c r="F38">
         <v>28.2</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>210</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>208.2178249745978</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.0007464839596990801</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>-31.26979519873345</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>0.9440112514160018</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.01052933338232311</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>1403111.235803583</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>61.4709210237598</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>1486328.932731404</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>61.72114931808036</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>141160781.8617166</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>81.49714055166032</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>28.2</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>26.02441615459356</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <v>18.65</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>19.40149815999095</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <v>0.01710841907012559</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <v>0.6154474787626195</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:24">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D39">
+        <v>28.69</v>
+      </c>
+      <c r="E39">
+        <v>15.63</v>
+      </c>
+      <c r="F39">
         <v>29.2</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>210</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>202.5078262786375</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>0.002886248227013936</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>-25.39666320856335</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>0.3612158146504303</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>1.153556817350658E-05</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>4854012.909258463</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>66.86100927004622</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>13437985.58198781</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>71.28334170786572</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>1164917529840.486</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>120.6629518063845</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>29.2</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>25.56668504832726</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>14.63</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>14.46375775153846</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <v>1.181286127519606E-05</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <v>0.9765261696358259</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:24">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40">
+        <v>31.17</v>
+      </c>
+      <c r="E40">
+        <v>15.39</v>
+      </c>
+      <c r="F40">
         <v>28.2</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>195</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>199.1838658665259</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>0.00027085586958896</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>-35.67261748585268</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>0.72793305854821</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>0.00126045891591995</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>426338.821090399</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>56.29754879955879</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>585684.1038936868</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>57.67663436961304</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>464659416.1033984</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>86.67134742347525</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>28.2</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>25.50684493808128</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>12.49</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>11.77271924669158</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <v>0.001961451278908088</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <v>0.642615460028979</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>Datetime</t>
   </si>
@@ -55,16 +55,22 @@
     <t>C_initial [dB]</t>
   </si>
   <si>
-    <t>C_after</t>
-  </si>
-  <si>
-    <t>C_after [dB]</t>
-  </si>
-  <si>
-    <t>C_after_wb</t>
-  </si>
-  <si>
-    <t>C_after_wb [dB]</t>
+    <t>C_after Wr</t>
+  </si>
+  <si>
+    <t>C_after Wr [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb Only</t>
+  </si>
+  <si>
+    <t>C_after Wb Only [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb</t>
+  </si>
+  <si>
+    <t>C_after Wb [dB]</t>
   </si>
   <si>
     <t>Theta X bar</t>
@@ -590,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,16 +672,22 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>29.27</v>
@@ -717,39 +729,45 @@
         <v>54.72792226618004</v>
       </c>
       <c r="Q2">
+        <v>117698165.470916</v>
+      </c>
+      <c r="R2">
+        <v>80.70769693666992</v>
+      </c>
+      <c r="S2">
         <v>120079039.5179059</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>80.79467205436565</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>28.2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>25.61092820746482</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>3</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>2.470951190556553</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.003146320845546832</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.7861800400490929</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>26.28</v>
@@ -791,39 +809,45 @@
         <v>56.1110499335533</v>
       </c>
       <c r="Q3">
+        <v>32744712732.15542</v>
+      </c>
+      <c r="R3">
+        <v>105.1514118473621</v>
+      </c>
+      <c r="S3">
         <v>39108596411.15012</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>105.9227222961025</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>29.2</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>25.58426440324506</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>5.11</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>4.589598239500642</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>1.318024173795875E-05</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.792335998878441</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>29.4</v>
@@ -865,39 +889,45 @@
         <v>62.05751294291641</v>
       </c>
       <c r="Q4">
+        <v>171748213491.9435</v>
+      </c>
+      <c r="R4">
+        <v>112.3489222826652</v>
+      </c>
+      <c r="S4">
         <v>172032698568.8672</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>112.3561100189797</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>29.2</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>25.52936665467368</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>20.8</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>20.83546918686387</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>9.345658355746739E-06</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.9989192713077006</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>28.8</v>
@@ -939,39 +969,45 @@
         <v>70.61934764088805</v>
       </c>
       <c r="Q5">
+        <v>1060216952128283</v>
+      </c>
+      <c r="R5">
+        <v>150.2539474401124</v>
+      </c>
+      <c r="S5">
         <v>1061005216093032</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>150.257175189766</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>30.2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>25.58958929675287</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>20.43</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>20.71069764720462</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>1.163130160258196E-08</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.9345207048619486</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>26.94</v>
@@ -1013,39 +1049,45 @@
         <v>74.61964631073312</v>
       </c>
       <c r="Q6">
+        <v>12782877631.96324</v>
+      </c>
+      <c r="R6">
+        <v>101.066286315222</v>
+      </c>
+      <c r="S6">
         <v>12791611833.98815</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>101.0692527211758</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>28.2</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>25.56161875795094</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>20.72</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>20.36687724871876</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>0.002521074097478446</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.8983669134751555</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>26.01</v>
@@ -1087,39 +1129,45 @@
         <v>74.87525421981816</v>
       </c>
       <c r="Q7">
+        <v>15949814781.03122</v>
+      </c>
+      <c r="R7">
+        <v>102.0275564413031</v>
+      </c>
+      <c r="S7">
         <v>16005475462.67114</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>102.0426857993266</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>28.2</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>25.62950726220191</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>19.46</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>20.27891454728202</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.003416531659538605</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>0.5619159924638909</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>30.6</v>
@@ -1161,39 +1209,45 @@
         <v>77.15597256730364</v>
       </c>
       <c r="Q8">
+        <v>3924119869837.166</v>
+      </c>
+      <c r="R8">
+        <v>125.9374226527613</v>
+      </c>
+      <c r="S8">
         <v>4052968088899.633</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>126.0777318433154</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>29.2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>25.58086507446517</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>20.56</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>20.64843008693667</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>1.29045560364403E-05</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>0.9933013016142785</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>29.91</v>
@@ -1235,39 +1289,45 @@
         <v>77.7374222358637</v>
       </c>
       <c r="Q9">
+        <v>5924583138662.991</v>
+      </c>
+      <c r="R9">
+        <v>127.7265779823533</v>
+      </c>
+      <c r="S9">
         <v>6077818406022.463</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>127.8374772002155</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>29.2</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>25.64075216623627</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>19.71</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>20.57797084228226</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>1.86729445226697E-05</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>0.5233373086520531</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>27.4</v>
@@ -1309,39 +1369,45 @@
         <v>66.11141756122498</v>
       </c>
       <c r="Q10">
+        <v>3571093765726.171</v>
+      </c>
+      <c r="R10">
+        <v>125.5280125355398</v>
+      </c>
+      <c r="S10">
         <v>3652966012683.817</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>125.6264563154054</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>30.2</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>26.21316721326063</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>20.69</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>20.46859082731644</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>1.166258992578853E-06</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.9587406004637935</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>25.54</v>
@@ -1383,39 +1449,45 @@
         <v>67.07524638843726</v>
       </c>
       <c r="Q11">
+        <v>12880232783478.31</v>
+      </c>
+      <c r="R11">
+        <v>131.0992371206623</v>
+      </c>
+      <c r="S11">
         <v>12883281651384.97</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>131.1002650134348</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>30.2</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>26.11349333170231</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>19.62</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>20.29270185589035</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>5.840058014248594E-07</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0.67776786868438</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>23.98</v>
@@ -1457,39 +1529,45 @@
         <v>76.63330072541061</v>
       </c>
       <c r="Q12">
+        <v>5282254244.7103</v>
+      </c>
+      <c r="R12">
+        <v>97.22819300774239</v>
+      </c>
+      <c r="S12">
         <v>5416802849.737436</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>97.33743029268345</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>28.2</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>25.88359888789246</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>20.76</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>20.33474096034671</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0.009933281412274526</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0.8560404841446936</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>26.12</v>
@@ -1531,39 +1609,45 @@
         <v>78.26790170301604</v>
       </c>
       <c r="Q13">
+        <v>84955958710.13913</v>
+      </c>
+      <c r="R13">
+        <v>109.2919384517301</v>
+      </c>
+      <c r="S13">
         <v>85386997833.30609</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>109.3139174423523</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>29.2</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>26.32158475694812</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>20.43</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>20.60843183803741</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.0008077609361318655</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>0.9730061370381309</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>29.45</v>
@@ -1605,39 +1689,45 @@
         <v>64.45561154456945</v>
       </c>
       <c r="Q14">
+        <v>1099935624536512</v>
+      </c>
+      <c r="R14">
+        <v>150.4136726813396</v>
+      </c>
+      <c r="S14">
         <v>1100184424183160</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>150.4146549215057</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>30.2</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>25.43260668738125</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>21.39</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>20.84221422824858</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>3.281747393021302E-09</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>0.772663707054916</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>28.53</v>
@@ -1679,39 +1769,45 @@
         <v>72.9295798883838</v>
       </c>
       <c r="Q15">
+        <v>3016688285938632</v>
+      </c>
+      <c r="R15">
+        <v>154.7953043689334</v>
+      </c>
+      <c r="S15">
         <v>3016959637142024</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>154.7956949993841</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>30.2</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>25.51895365385496</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>20.61</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>20.7494025944426</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>6.616715272710916E-09</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>0.983435864188472</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>30.64</v>
@@ -1753,39 +1849,45 @@
         <v>64.81985656890333</v>
       </c>
       <c r="Q16">
+        <v>1717978872.025159</v>
+      </c>
+      <c r="R16">
+        <v>92.35017818506103</v>
+      </c>
+      <c r="S16">
         <v>1732608160.202035</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>92.38700355498962</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>28.2</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>25.51252600864294</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>21.43</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>21.02673858545723</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>0.002013667735231478</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>0.8695558674927799</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>30.45</v>
@@ -1827,39 +1929,45 @@
         <v>74.70380377078959</v>
       </c>
       <c r="Q17">
+        <v>13874076287.84924</v>
+      </c>
+      <c r="R17">
+        <v>101.4220407817713</v>
+      </c>
+      <c r="S17">
         <v>13994671573.19841</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>101.4596271090355</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>28.2</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>25.54815249791693</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>20.64</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>21.00809028573192</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>0.002371337560428618</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>0.8900702512353189</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>25.7</v>
@@ -1901,39 +2009,45 @@
         <v>74.74758765094657</v>
       </c>
       <c r="Q18">
+        <v>83757330530.815</v>
+      </c>
+      <c r="R18">
+        <v>109.2302282728813</v>
+      </c>
+      <c r="S18">
         <v>88167980018.50296</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>109.4531089095824</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>28.2</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>25.15896008270689</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>20.64</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>20.41738737334635</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>0.0003531394369043853</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>0.9583003658697663</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>24.25</v>
@@ -1975,39 +2089,45 @@
         <v>75.12078607842717</v>
       </c>
       <c r="Q19">
+        <v>78141403663.01521</v>
+      </c>
+      <c r="R19">
+        <v>108.9288120824053</v>
+      </c>
+      <c r="S19">
         <v>85005026087.81882</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>109.2944460498103</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>28.2</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>25.21214372971652</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>19.82</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>20.29719116303801</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>0.0004651937171244597</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>0.8222429572614901</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>24.15</v>
@@ -2049,39 +2169,45 @@
         <v>77.4568468303099</v>
       </c>
       <c r="Q20">
+        <v>1912090431274.571</v>
+      </c>
+      <c r="R20">
+        <v>122.8150842814657</v>
+      </c>
+      <c r="S20">
         <v>1981013818437.553</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>122.9688750494301</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>29.2</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>25.71905924593729</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>20.62</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>20.34512788695839</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>2.999163464523854E-05</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>0.9371239584585108</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>28.53</v>
@@ -2123,39 +2249,45 @@
         <v>59.99966325324684</v>
       </c>
       <c r="Q21">
+        <v>6306272355223.238</v>
+      </c>
+      <c r="R21">
+        <v>127.9977272312237</v>
+      </c>
+      <c r="S21">
         <v>6314036886266.789</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>128.0030711468881</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>30.2</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>25.94910137980951</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>21.46</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>21.07565489858891</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>1.798044289460197E-07</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>0.8807625203717713</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>27.77</v>
@@ -2197,39 +2329,45 @@
         <v>70.73839825978422</v>
       </c>
       <c r="Q22">
+        <v>78777258818300.5</v>
+      </c>
+      <c r="R22">
+        <v>138.9640086475951</v>
+      </c>
+      <c r="S22">
         <v>78778082326872.7</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>138.9640540469102</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>30.2</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>25.96283784551022</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>20.44</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>21.00908391063451</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>1.987573428499618E-07</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>0.7570267732653012</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>29.66</v>
@@ -2271,39 +2409,45 @@
         <v>74.93915622923825</v>
       </c>
       <c r="Q23">
+        <v>2783034364.145212</v>
+      </c>
+      <c r="R23">
+        <v>94.44518568916328</v>
+      </c>
+      <c r="S23">
         <v>3596081818.313697</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>95.55829564273074</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>28.2</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>30.50520422368435</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>20.82</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>21.2780658290691</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>0.01038506024938377</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>0.8349818555111671</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <v>20.56</v>
@@ -2345,39 +2489,45 @@
         <v>72.22094327972837</v>
       </c>
       <c r="Q24">
+        <v>163831477785326</v>
+      </c>
+      <c r="R24">
+        <v>142.1439734867642</v>
+      </c>
+      <c r="S24">
         <v>188272544245701.7</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>142.7478699154096</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>30.2</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>25.88207699229464</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>20.78</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>20.2805578833996</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>1.097536326624548E-07</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>0.8070276839808167</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>20.56</v>
@@ -2419,39 +2569,45 @@
         <v>72.64418430019116</v>
       </c>
       <c r="Q25">
+        <v>162980958592540.9</v>
+      </c>
+      <c r="R25">
+        <v>142.121368678319</v>
+      </c>
+      <c r="S25">
         <v>187295141035280.4</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>142.7252651069645</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>30.2</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>25.88207699229464</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>19.92</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>20.2805578833996</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>1.097536326624548E-07</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>0.8942789654886772</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>25.93</v>
@@ -2493,39 +2649,45 @@
         <v>58.74666951744828</v>
       </c>
       <c r="Q26">
+        <v>241774288.9406502</v>
+      </c>
+      <c r="R26">
+        <v>83.83410114701337</v>
+      </c>
+      <c r="S26">
         <v>248365253.9186092</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>83.95090838336637</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>28.2</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>25.78257790965887</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>21.86</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>20.90700873230562</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>0.006585443915485074</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>0.4581324537425724</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>25.93</v>
@@ -2567,39 +2729,45 @@
         <v>72.11729527306224</v>
       </c>
       <c r="Q27">
+        <v>2462523194.06547</v>
+      </c>
+      <c r="R27">
+        <v>93.91380329730951</v>
+      </c>
+      <c r="S27">
         <v>2529653591.597034</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>94.03061053366251</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>28.2</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>25.78257790965887</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>21.07</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>20.90700873230562</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>0.006585443915485074</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>0.9774249448934055</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <v>27.73</v>
@@ -2641,39 +2809,45 @@
         <v>62.99009134156265</v>
       </c>
       <c r="Q28">
+        <v>1568757975.558686</v>
+      </c>
+      <c r="R28">
+        <v>91.95555946781973</v>
+      </c>
+      <c r="S28">
         <v>1591771563.447758</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>92.01880741886242</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>29.2</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>26.47493192641952</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>21.76</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>21.16780987464984</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>0.001690570207044908</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>0.7397673866985707</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29">
         <v>28.21</v>
@@ -2715,39 +2889,45 @@
         <v>75.85828877937666</v>
       </c>
       <c r="Q29">
+        <v>19222827089.73648</v>
+      </c>
+      <c r="R29">
+        <v>102.8381725946066</v>
+      </c>
+      <c r="S29">
         <v>19703760980.61357</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>102.9454913058956</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>29.2</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>26.51745340574022</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>20.97</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>21.21597694064302</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>0.002059988764941746</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>0.9493249511161886</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <v>28.17</v>
@@ -2789,39 +2969,45 @@
         <v>53.57451764992778</v>
       </c>
       <c r="Q30">
+        <v>12787356646388.77</v>
+      </c>
+      <c r="R30">
+        <v>131.0678077805697</v>
+      </c>
+      <c r="S30">
         <v>12940292993926.07</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>131.1194410973336</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>30.2</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>25.69166196501929</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>21.97</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>21.30001122865929</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>2.588611562808741E-08</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>0.679893311061352</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>28.89</v>
@@ -2863,39 +3049,45 @@
         <v>68.82074615844415</v>
       </c>
       <c r="Q31">
+        <v>296736632183302</v>
+      </c>
+      <c r="R31">
+        <v>144.7237116334763</v>
+      </c>
+      <c r="S31">
         <v>297638360434745.6</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>144.7368890352543</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>30.2</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>25.72860430203065</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>20.78</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>21.36674785227729</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>3.44267111932204E-08</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>0.7438582363299303</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>29.81</v>
@@ -2937,39 +3129,45 @@
         <v>63.48589643406341</v>
       </c>
       <c r="Q32">
+        <v>3909582383.174953</v>
+      </c>
+      <c r="R32">
+        <v>95.9213036906617</v>
+      </c>
+      <c r="S32">
         <v>3947790187.145123</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>95.96354063200624</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>28.2</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>25.26584124686779</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>21.65</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>21.34775409513545</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>0.0006114142594635894</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>0.9244853150972239</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33">
         <v>28.91</v>
@@ -3011,39 +3209,45 @@
         <v>74.53736907532311</v>
       </c>
       <c r="Q33">
+        <v>58002677205.43279</v>
+      </c>
+      <c r="R33">
+        <v>107.6344803957523</v>
+      </c>
+      <c r="S33">
         <v>59414446629.76423</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>107.7389205657637</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>28.2</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>25.24572886438469</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>20.85</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>21.25847803622334</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <v>0.0005522402081893794</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <v>0.8663967746218402</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>138.15</v>
@@ -3085,39 +3289,45 @@
         <v>69.25724125400575</v>
       </c>
       <c r="Q34">
+        <v>5836863219.259976</v>
+      </c>
+      <c r="R34">
+        <v>97.66179516195778</v>
+      </c>
+      <c r="S34">
         <v>10863320533.27965</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>100.3596259402447</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>29.2</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>26.41007190665697</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>21.9</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>22.64061764602994</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <v>0.001243112284679651</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <v>0.6240956752850675</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D35">
         <v>31.26</v>
@@ -3159,39 +3369,45 @@
         <v>59.47809962623527</v>
       </c>
       <c r="Q35">
+        <v>33990406720266.12</v>
+      </c>
+      <c r="R35">
+        <v>135.3135636126769</v>
+      </c>
+      <c r="S35">
         <v>35217068654983.79</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>135.4675320398939</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>30.2</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>25.72629021263568</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>21.67</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>21.08416106057343</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <v>3.381962204557324E-08</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <v>0.7445399552531508</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>31.11</v>
@@ -3233,39 +3449,45 @@
         <v>70.91724882210207</v>
       </c>
       <c r="Q36">
+        <v>807072419956081</v>
+      </c>
+      <c r="R36">
+        <v>149.0691250643974</v>
+      </c>
+      <c r="S36">
         <v>825728049708328.1</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>149.1683703768618</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>30.2</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>25.62663455721775</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>20.85</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>21.06797515105077</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <v>1.558201082496235E-08</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <v>0.9599847693784068</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37">
         <v>24.5</v>
@@ -3307,39 +3529,45 @@
         <v>72.55852455989431</v>
       </c>
       <c r="Q37">
+        <v>913169062.5047659</v>
+      </c>
+      <c r="R37">
+        <v>89.60551189490272</v>
+      </c>
+      <c r="S37">
         <v>934931530.0253701</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>89.70779806358081</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>28.2</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>26.15334554713331</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>19.87</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>19.23326443013306</v>
       </c>
-      <c r="W37">
+      <c r="Y37">
         <v>0.02731567171376547</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <v>0.7057660527278936</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>26.54</v>
@@ -3381,39 +3609,45 @@
         <v>61.72114931808036</v>
       </c>
       <c r="Q38">
+        <v>133257366.3361403</v>
+      </c>
+      <c r="R38">
+        <v>81.24691225733977</v>
+      </c>
+      <c r="S38">
         <v>141160781.8617166</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>81.49714055166032</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <v>28.2</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>26.02441615459356</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <v>18.65</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <v>19.40149815999095</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <v>0.01710841907012559</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <v>0.6154474787626195</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:26">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D39">
         <v>28.69</v>
@@ -3455,39 +3689,45 @@
         <v>71.28334170786572</v>
       </c>
       <c r="Q39">
+        <v>420786634541.8982</v>
+      </c>
+      <c r="R39">
+        <v>116.2406193685651</v>
+      </c>
+      <c r="S39">
         <v>1164917529840.486</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>120.6629518063845</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>29.2</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>25.56668504832726</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <v>14.63</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <v>14.46375775153846</v>
       </c>
-      <c r="W39">
+      <c r="Y39">
         <v>1.181286127519606E-05</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <v>0.9765261696358259</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:26">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <v>31.17</v>
@@ -3529,27 +3769,33 @@
         <v>57.67663436961304</v>
       </c>
       <c r="Q40">
+        <v>338240949.9473722</v>
+      </c>
+      <c r="R40">
+        <v>85.29226185342098</v>
+      </c>
+      <c r="S40">
         <v>464659416.1033984</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>86.67134742347525</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>28.2</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>25.50684493808128</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <v>12.49</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <v>11.77271924669158</v>
       </c>
-      <c r="W40">
+      <c r="Y40">
         <v>0.001961451278908088</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <v>0.642615460028979</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>Datetime</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Wb y</t>
+  </si>
+  <si>
+    <t>Exp Constant</t>
+  </si>
+  <si>
+    <t>Exp Constant [dB]</t>
   </si>
   <si>
     <t>2022-05-08  17:54:14</t>
@@ -596,13 +602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,16 +684,22 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>29.27</v>
@@ -758,16 +770,22 @@
       <c r="Z2">
         <v>0.7861800400490929</v>
       </c>
+      <c r="AA2">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB2">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>26.28</v>
@@ -838,16 +856,22 @@
       <c r="Z3">
         <v>0.792335998878441</v>
       </c>
+      <c r="AA3">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB3">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>29.4</v>
@@ -918,16 +942,22 @@
       <c r="Z4">
         <v>0.9989192713077006</v>
       </c>
+      <c r="AA4">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB4">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>28.8</v>
@@ -998,16 +1028,22 @@
       <c r="Z5">
         <v>0.9345207048619486</v>
       </c>
+      <c r="AA5">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB5">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>26.94</v>
@@ -1078,16 +1114,22 @@
       <c r="Z6">
         <v>0.8983669134751555</v>
       </c>
+      <c r="AA6">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB6">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>26.01</v>
@@ -1158,16 +1200,22 @@
       <c r="Z7">
         <v>0.5619159924638909</v>
       </c>
+      <c r="AA7">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB7">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>30.6</v>
@@ -1238,16 +1286,22 @@
       <c r="Z8">
         <v>0.9933013016142785</v>
       </c>
+      <c r="AA8">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB8">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>29.91</v>
@@ -1318,16 +1372,22 @@
       <c r="Z9">
         <v>0.5233373086520531</v>
       </c>
+      <c r="AA9">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB9">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>27.4</v>
@@ -1398,16 +1458,22 @@
       <c r="Z10">
         <v>0.9587406004637935</v>
       </c>
+      <c r="AA10">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB10">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>25.54</v>
@@ -1478,16 +1544,22 @@
       <c r="Z11">
         <v>0.67776786868438</v>
       </c>
+      <c r="AA11">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB11">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>23.98</v>
@@ -1558,16 +1630,22 @@
       <c r="Z12">
         <v>0.8560404841446936</v>
       </c>
+      <c r="AA12">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB12">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>26.12</v>
@@ -1638,16 +1716,22 @@
       <c r="Z13">
         <v>0.9730061370381309</v>
       </c>
+      <c r="AA13">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB13">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>29.45</v>
@@ -1718,16 +1802,22 @@
       <c r="Z14">
         <v>0.772663707054916</v>
       </c>
+      <c r="AA14">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB14">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>28.53</v>
@@ -1798,16 +1888,22 @@
       <c r="Z15">
         <v>0.983435864188472</v>
       </c>
+      <c r="AA15">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB15">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>30.64</v>
@@ -1878,16 +1974,22 @@
       <c r="Z16">
         <v>0.8695558674927799</v>
       </c>
+      <c r="AA16">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB16">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>30.45</v>
@@ -1958,16 +2060,22 @@
       <c r="Z17">
         <v>0.8900702512353189</v>
       </c>
+      <c r="AA17">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB17">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>25.7</v>
@@ -2038,16 +2146,22 @@
       <c r="Z18">
         <v>0.9583003658697663</v>
       </c>
+      <c r="AA18">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB18">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>24.25</v>
@@ -2118,16 +2232,22 @@
       <c r="Z19">
         <v>0.8222429572614901</v>
       </c>
+      <c r="AA19">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB19">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>24.15</v>
@@ -2198,16 +2318,22 @@
       <c r="Z20">
         <v>0.9371239584585108</v>
       </c>
+      <c r="AA20">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB20">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>28.53</v>
@@ -2278,16 +2404,22 @@
       <c r="Z21">
         <v>0.8807625203717713</v>
       </c>
+      <c r="AA21">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB21">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>27.77</v>
@@ -2358,16 +2490,22 @@
       <c r="Z22">
         <v>0.7570267732653012</v>
       </c>
+      <c r="AA22">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB22">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <v>29.66</v>
@@ -2438,16 +2576,22 @@
       <c r="Z23">
         <v>0.8349818555111671</v>
       </c>
+      <c r="AA23">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB23">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24">
         <v>20.56</v>
@@ -2518,16 +2662,22 @@
       <c r="Z24">
         <v>0.8070276839808167</v>
       </c>
+      <c r="AA24">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB24">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>20.56</v>
@@ -2598,16 +2748,22 @@
       <c r="Z25">
         <v>0.8942789654886772</v>
       </c>
+      <c r="AA25">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB25">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>25.93</v>
@@ -2678,16 +2834,22 @@
       <c r="Z26">
         <v>0.4581324537425724</v>
       </c>
+      <c r="AA26">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB26">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>25.93</v>
@@ -2758,16 +2920,22 @@
       <c r="Z27">
         <v>0.9774249448934055</v>
       </c>
+      <c r="AA27">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB27">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>27.73</v>
@@ -2838,16 +3006,22 @@
       <c r="Z28">
         <v>0.7397673866985707</v>
       </c>
+      <c r="AA28">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB28">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>28.21</v>
@@ -2918,16 +3092,22 @@
       <c r="Z29">
         <v>0.9493249511161886</v>
       </c>
+      <c r="AA29">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB29">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>28.17</v>
@@ -2998,16 +3178,22 @@
       <c r="Z30">
         <v>0.679893311061352</v>
       </c>
+      <c r="AA30">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB30">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>28.89</v>
@@ -3078,16 +3264,22 @@
       <c r="Z31">
         <v>0.7438582363299303</v>
       </c>
+      <c r="AA31">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB31">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32">
         <v>29.81</v>
@@ -3158,16 +3350,22 @@
       <c r="Z32">
         <v>0.9244853150972239</v>
       </c>
+      <c r="AA32">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB32">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>28.91</v>
@@ -3238,16 +3436,22 @@
       <c r="Z33">
         <v>0.8663967746218402</v>
       </c>
+      <c r="AA33">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB33">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>138.15</v>
@@ -3318,16 +3522,22 @@
       <c r="Z34">
         <v>0.6240956752850675</v>
       </c>
+      <c r="AA34">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB34">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D35">
         <v>31.26</v>
@@ -3398,16 +3608,22 @@
       <c r="Z35">
         <v>0.7445399552531508</v>
       </c>
+      <c r="AA35">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB35">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36">
         <v>31.11</v>
@@ -3478,16 +3694,22 @@
       <c r="Z36">
         <v>0.9599847693784068</v>
       </c>
+      <c r="AA36">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB36">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <v>24.5</v>
@@ -3558,16 +3780,22 @@
       <c r="Z37">
         <v>0.7057660527278936</v>
       </c>
+      <c r="AA37">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB37">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D38">
         <v>26.54</v>
@@ -3638,16 +3866,22 @@
       <c r="Z38">
         <v>0.6154474787626195</v>
       </c>
+      <c r="AA38">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB38">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <v>28.69</v>
@@ -3718,16 +3952,22 @@
       <c r="Z39">
         <v>0.9765261696358259</v>
       </c>
+      <c r="AA39">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB39">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D40">
         <v>31.17</v>
@@ -3797,6 +4037,12 @@
       </c>
       <c r="Z40">
         <v>0.642615460028979</v>
+      </c>
+      <c r="AA40">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB40">
+        <v>85.85743731821252</v>
       </c>
     </row>
   </sheetData>
